--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809838.4891932782</v>
+        <v>-812163.1308789074</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>117.1719159844247</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.03608564164963</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16776090941369</v>
+        <v>43.09198093152767</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>42.82571470372699</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1023,10 +1023,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.8346409631757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.0849807639208</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>206.5939821429733</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>298.9658331225958</v>
       </c>
       <c r="I11" t="n">
-        <v>57.98258776552456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>136.4121249836598</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>12.68622560985672</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>146.4521375147749</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0927901054436</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.51494242653605</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.3645398919294</v>
+        <v>141.5332848380804</v>
       </c>
       <c r="U13" t="n">
         <v>286.2222500007077</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2166911690997</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.4521375147749</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>37.29328964096585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.40226810537185</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.0955938642338</v>
       </c>
       <c r="T16" t="n">
         <v>220.3645398919294</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2222500007077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>118.8847705815444</v>
+        <v>118.8847705815443</v>
       </c>
       <c r="T17" t="n">
         <v>205.7807745715662</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>39.70023727781459</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>141.0184249294733</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.2166911690997</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4521375147749</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2166911690997</v>
       </c>
       <c r="H22" t="n">
-        <v>146.4521375147749</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.51494242653605</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>220.3645398919294</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2222500007077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.25160288980993</v>
+        <v>92.53031089943127</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>118.4524478576606</v>
       </c>
       <c r="C25" t="n">
-        <v>26.43662359551855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2222500007077</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2166911690997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.0927901054436</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>193.0955938642338</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>194.433201304453</v>
+        <v>80.48928402586571</v>
       </c>
       <c r="U28" t="n">
         <v>286.2222500007077</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>125.0318823524214</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.7606559523881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.2166911690997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.4521375147749</v>
       </c>
       <c r="I31" t="n">
         <v>102.0927901054436</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.51494242653607</v>
       </c>
       <c r="S31" t="n">
         <v>193.0955938642338</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3645398919294</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.347266357496</v>
+        <v>411.3472663574955</v>
       </c>
       <c r="H32" t="n">
         <v>298.9658331225958</v>
@@ -3190,22 +3190,22 @@
         <v>111.6380669976074</v>
       </c>
       <c r="D34" t="n">
-        <v>93.00671891719189</v>
+        <v>93.00671891719099</v>
       </c>
       <c r="E34" t="n">
-        <v>90.8252085455487</v>
+        <v>90.82520854554872</v>
       </c>
       <c r="F34" t="n">
-        <v>89.81229392191078</v>
+        <v>89.81229392191079</v>
       </c>
       <c r="G34" t="n">
         <v>110.6079370680793</v>
       </c>
       <c r="H34" t="n">
-        <v>90.84338341375441</v>
+        <v>90.84338341375444</v>
       </c>
       <c r="I34" t="n">
-        <v>46.48403600442312</v>
+        <v>46.48403600442313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90618832551559</v>
+        <v>41.90618832551561</v>
       </c>
       <c r="S34" t="n">
         <v>137.4868397632134</v>
@@ -3284,7 +3284,7 @@
         <v>243.3570790215753</v>
       </c>
       <c r="I35" t="n">
-        <v>2.373833664504083</v>
+        <v>2.373833664504104</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.2760164805239</v>
+        <v>63.27601648052394</v>
       </c>
       <c r="T35" t="n">
-        <v>150.1720204705457</v>
+        <v>150.1720204705458</v>
       </c>
       <c r="U35" t="n">
         <v>195.4204611142049</v>
@@ -3427,22 +3427,22 @@
         <v>111.6380669976074</v>
       </c>
       <c r="D37" t="n">
-        <v>93.00671891719188</v>
+        <v>93.0067189171919</v>
       </c>
       <c r="E37" t="n">
-        <v>90.82520854554869</v>
+        <v>90.82520854554872</v>
       </c>
       <c r="F37" t="n">
-        <v>89.81229392191076</v>
+        <v>89.81229392191079</v>
       </c>
       <c r="G37" t="n">
         <v>110.6079370680793</v>
       </c>
       <c r="H37" t="n">
-        <v>90.8433834137544</v>
+        <v>90.84338341375444</v>
       </c>
       <c r="I37" t="n">
-        <v>46.48403600442311</v>
+        <v>46.48403600442313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90618832551558</v>
+        <v>41.90618832551561</v>
       </c>
       <c r="S37" t="n">
-        <v>137.4868397632133</v>
+        <v>137.4868397632134</v>
       </c>
       <c r="T37" t="n">
         <v>164.7557857909089</v>
@@ -3503,16 +3503,16 @@
         <v>327.1250875624601</v>
       </c>
       <c r="C38" t="n">
-        <v>309.664137669987</v>
+        <v>309.6641376699871</v>
       </c>
       <c r="D38" t="n">
-        <v>299.0742875196624</v>
+        <v>299.0742875196625</v>
       </c>
       <c r="E38" t="n">
         <v>326.3216159712413</v>
       </c>
       <c r="F38" t="n">
-        <v>351.2672916406909</v>
+        <v>351.267291640691</v>
       </c>
       <c r="G38" t="n">
         <v>355.7385122564755</v>
@@ -3521,7 +3521,7 @@
         <v>243.3570790215753</v>
       </c>
       <c r="I38" t="n">
-        <v>2.373833664504062</v>
+        <v>2.373833664504104</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.27601648052388</v>
+        <v>63.27601648052392</v>
       </c>
       <c r="T38" t="n">
-        <v>150.1720204705457</v>
+        <v>150.1720204705458</v>
       </c>
       <c r="U38" t="n">
         <v>195.4204611142049</v>
       </c>
       <c r="V38" t="n">
-        <v>272.1435043691144</v>
+        <v>272.1435043691145</v>
       </c>
       <c r="W38" t="n">
-        <v>293.6322146163925</v>
+        <v>293.6322146163926</v>
       </c>
       <c r="X38" t="n">
-        <v>314.1223465774485</v>
+        <v>314.1223465774486</v>
       </c>
       <c r="Y38" t="n">
         <v>330.6291845550331</v>
@@ -3661,25 +3661,25 @@
         <v>124.2232260809168</v>
       </c>
       <c r="C40" t="n">
-        <v>111.6380669976073</v>
+        <v>111.6380669976074</v>
       </c>
       <c r="D40" t="n">
-        <v>93.00671891719186</v>
+        <v>93.0067189171919</v>
       </c>
       <c r="E40" t="n">
-        <v>90.82520854554868</v>
+        <v>90.82520854554872</v>
       </c>
       <c r="F40" t="n">
-        <v>89.81229392191075</v>
+        <v>89.81229392191079</v>
       </c>
       <c r="G40" t="n">
-        <v>110.6079370680792</v>
+        <v>110.6079370680793</v>
       </c>
       <c r="H40" t="n">
-        <v>90.84338341375438</v>
+        <v>90.84338341375442</v>
       </c>
       <c r="I40" t="n">
-        <v>46.48403600442309</v>
+        <v>46.48403600442312</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90618832551556</v>
+        <v>41.9061883255156</v>
       </c>
       <c r="S40" t="n">
-        <v>137.4868397632133</v>
+        <v>137.4868397632134</v>
       </c>
       <c r="T40" t="n">
         <v>164.7557857909089</v>
@@ -3724,7 +3724,7 @@
         <v>230.9142442355705</v>
       </c>
       <c r="X40" t="n">
-        <v>170.1009012880166</v>
+        <v>170.1009012880167</v>
       </c>
       <c r="Y40" t="n">
         <v>162.9758992510743</v>
@@ -3758,7 +3758,7 @@
         <v>243.3570790215753</v>
       </c>
       <c r="I41" t="n">
-        <v>2.373833664504083</v>
+        <v>2.373833664504112</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.2760164805239</v>
+        <v>63.27601648052394</v>
       </c>
       <c r="T41" t="n">
-        <v>150.1720204705457</v>
+        <v>150.1720204705458</v>
       </c>
       <c r="U41" t="n">
         <v>195.4204611142049</v>
@@ -3901,22 +3901,22 @@
         <v>111.6380669976074</v>
       </c>
       <c r="D43" t="n">
-        <v>93.00671891719188</v>
+        <v>93.0067189171919</v>
       </c>
       <c r="E43" t="n">
-        <v>90.82520854554869</v>
+        <v>90.82520854554872</v>
       </c>
       <c r="F43" t="n">
-        <v>89.81229392191076</v>
+        <v>89.81229392191079</v>
       </c>
       <c r="G43" t="n">
         <v>110.6079370680793</v>
       </c>
       <c r="H43" t="n">
-        <v>90.8433834137544</v>
+        <v>90.84338341375442</v>
       </c>
       <c r="I43" t="n">
-        <v>46.48403600442311</v>
+        <v>46.48403600442314</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90618832551558</v>
+        <v>41.90618832551562</v>
       </c>
       <c r="S43" t="n">
-        <v>137.4868397632133</v>
+        <v>137.4868397632134</v>
       </c>
       <c r="T43" t="n">
         <v>164.7557857909089</v>
@@ -3977,16 +3977,16 @@
         <v>327.1250875624601</v>
       </c>
       <c r="C44" t="n">
-        <v>309.6641376699871</v>
+        <v>309.664137669987</v>
       </c>
       <c r="D44" t="n">
-        <v>299.0742875196625</v>
+        <v>299.0742875196624</v>
       </c>
       <c r="E44" t="n">
         <v>326.3216159712413</v>
       </c>
       <c r="F44" t="n">
-        <v>351.267291640691</v>
+        <v>351.2672916406909</v>
       </c>
       <c r="G44" t="n">
         <v>355.7385122564755</v>
@@ -3995,7 +3995,7 @@
         <v>243.3570790215753</v>
       </c>
       <c r="I44" t="n">
-        <v>2.373833664504104</v>
+        <v>2.373833664504069</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.27601648052392</v>
+        <v>63.2760164805239</v>
       </c>
       <c r="T44" t="n">
-        <v>150.1720204705458</v>
+        <v>150.1720204705457</v>
       </c>
       <c r="U44" t="n">
         <v>195.4204611142049</v>
       </c>
       <c r="V44" t="n">
-        <v>272.1435043691145</v>
+        <v>272.1435043691144</v>
       </c>
       <c r="W44" t="n">
-        <v>293.6322146163926</v>
+        <v>293.6322146163925</v>
       </c>
       <c r="X44" t="n">
-        <v>314.1223465774486</v>
+        <v>314.1223465774485</v>
       </c>
       <c r="Y44" t="n">
         <v>330.6291845550331</v>
@@ -4138,22 +4138,22 @@
         <v>111.6380669976074</v>
       </c>
       <c r="D46" t="n">
-        <v>93.0067189171919</v>
+        <v>93.00671891719188</v>
       </c>
       <c r="E46" t="n">
-        <v>90.82520854554872</v>
+        <v>90.82520854554869</v>
       </c>
       <c r="F46" t="n">
-        <v>89.81229392191079</v>
+        <v>89.81229392191076</v>
       </c>
       <c r="G46" t="n">
         <v>110.6079370680793</v>
       </c>
       <c r="H46" t="n">
-        <v>90.84338341375442</v>
+        <v>90.8433834137544</v>
       </c>
       <c r="I46" t="n">
-        <v>46.48403600442312</v>
+        <v>46.4840360044231</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9061883255156</v>
+        <v>41.90618832551558</v>
       </c>
       <c r="S46" t="n">
-        <v>137.4868397632134</v>
+        <v>137.4868397632133</v>
       </c>
       <c r="T46" t="n">
         <v>164.7557857909089</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C2" t="n">
-        <v>569.2254314512334</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D2" t="n">
-        <v>569.2254314512334</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y2" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.9682111954345</v>
+        <v>251.7598820467572</v>
       </c>
       <c r="C3" t="n">
-        <v>258.5151819143075</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4419,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X3" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y3" t="n">
-        <v>432.9682111954345</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.5723599112974</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>269.5723599112974</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>153.5932025863743</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>153.5932025863743</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>153.5932025863743</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4650,7 +4650,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
         <v>473.4149733950735</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>619.4388494194218</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>437.7876969313655</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4835,19 +4835,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W8" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="V8" t="n">
-        <v>540.6514970160482</v>
-      </c>
-      <c r="W8" t="n">
-        <v>297.2027203719481</v>
-      </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>302.0092082451243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>155.4746502720093</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -5002,10 +5002,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2391.485749647971</v>
+        <v>2155.810016622907</v>
       </c>
       <c r="C11" t="n">
-        <v>2022.523232707559</v>
+        <v>1786.847499682495</v>
       </c>
       <c r="D11" t="n">
-        <v>1664.257534100809</v>
+        <v>1428.581801075745</v>
       </c>
       <c r="E11" t="n">
-        <v>1278.469281502565</v>
+        <v>1219.901011032338</v>
       </c>
       <c r="F11" t="n">
-        <v>867.4833767129571</v>
+        <v>808.9151062427304</v>
       </c>
       <c r="G11" t="n">
-        <v>451.9810874629612</v>
+        <v>393.4128169927345</v>
       </c>
       <c r="H11" t="n">
-        <v>149.9953974401373</v>
+        <v>91.42712696991042</v>
       </c>
       <c r="I11" t="n">
-        <v>91.42712696991047</v>
+        <v>91.42712696991042</v>
       </c>
       <c r="J11" t="n">
         <v>411.9558439728588</v>
       </c>
       <c r="K11" t="n">
-        <v>692.1861480641771</v>
+        <v>1013.09010650963</v>
       </c>
       <c r="L11" t="n">
-        <v>1076.73838180593</v>
+        <v>1667.837185468129</v>
       </c>
       <c r="M11" t="n">
-        <v>1981.314672728543</v>
+        <v>2127.395078232837</v>
       </c>
       <c r="N11" t="n">
-        <v>2885.895956197866</v>
+        <v>2599.002906534296</v>
       </c>
       <c r="O11" t="n">
-        <v>3694.878773442062</v>
+        <v>3407.985723778492</v>
       </c>
       <c r="P11" t="n">
-        <v>4060.759458909921</v>
+        <v>4060.759458909918</v>
       </c>
       <c r="Q11" t="n">
-        <v>4473.743588802276</v>
+        <v>4473.743588802273</v>
       </c>
       <c r="R11" t="n">
-        <v>4571.356348495524</v>
+        <v>4571.356348495521</v>
       </c>
       <c r="S11" t="n">
-        <v>4451.270721645479</v>
+        <v>4451.270721645476</v>
       </c>
       <c r="T11" t="n">
-        <v>4243.411353391371</v>
+        <v>4243.411353391369</v>
       </c>
       <c r="U11" t="n">
-        <v>3989.846489537609</v>
+        <v>3989.846489537606</v>
       </c>
       <c r="V11" t="n">
-        <v>3658.783602194038</v>
+        <v>3658.783602194035</v>
       </c>
       <c r="W11" t="n">
-        <v>3306.014946923924</v>
+        <v>3306.01494692392</v>
       </c>
       <c r="X11" t="n">
-        <v>3168.224921687905</v>
+        <v>2932.549188662841</v>
       </c>
       <c r="Y11" t="n">
-        <v>2778.085589712093</v>
+        <v>2542.409856687029</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>200.8477639745541</v>
       </c>
       <c r="H12" t="n">
-        <v>108.1247065021918</v>
+        <v>108.1247065021917</v>
       </c>
       <c r="I12" t="n">
-        <v>91.42712696991047</v>
+        <v>91.42712696991042</v>
       </c>
       <c r="J12" t="n">
-        <v>163.8083303053199</v>
+        <v>163.8083303053198</v>
       </c>
       <c r="K12" t="n">
-        <v>365.6741602389055</v>
+        <v>365.6741602389054</v>
       </c>
       <c r="L12" t="n">
-        <v>1005.531940891993</v>
+        <v>683.4302215304683</v>
       </c>
       <c r="M12" t="n">
-        <v>1395.695145006359</v>
+        <v>1426.625079394325</v>
       </c>
       <c r="N12" t="n">
-        <v>1810.593453082531</v>
+        <v>1841.523387470498</v>
       </c>
       <c r="O12" t="n">
-        <v>2167.924552809691</v>
+        <v>2198.854487197658</v>
       </c>
       <c r="P12" t="n">
-        <v>2435.38119696369</v>
+        <v>2466.311131351657</v>
       </c>
       <c r="Q12" t="n">
-        <v>2564.249684215175</v>
+        <v>2595.179618603142</v>
       </c>
       <c r="R12" t="n">
         <v>2595.179618603142</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>524.233161645368</v>
+        <v>386.2485265029468</v>
       </c>
       <c r="C13" t="n">
-        <v>355.2969787174611</v>
+        <v>386.2485265029468</v>
       </c>
       <c r="D13" t="n">
-        <v>355.2969787174611</v>
+        <v>386.2485265029469</v>
       </c>
       <c r="E13" t="n">
-        <v>355.2969787174611</v>
+        <v>386.2485265029468</v>
       </c>
       <c r="F13" t="n">
-        <v>355.2969787174611</v>
+        <v>239.3585790050365</v>
       </c>
       <c r="G13" t="n">
-        <v>342.4826094145756</v>
+        <v>239.3585790050365</v>
       </c>
       <c r="H13" t="n">
-        <v>194.5511573794494</v>
+        <v>91.42712696991042</v>
       </c>
       <c r="I13" t="n">
-        <v>91.42712696991047</v>
+        <v>91.42712696991042</v>
       </c>
       <c r="J13" t="n">
         <v>123.1892918922098</v>
@@ -5206,7 +5206,7 @@
         <v>593.685628971368</v>
       </c>
       <c r="M13" t="n">
-        <v>908.2201284056474</v>
+        <v>908.2201284056473</v>
       </c>
       <c r="N13" t="n">
         <v>1220.710316884406</v>
@@ -5221,28 +5221,28 @@
         <v>1764.867526536522</v>
       </c>
       <c r="R13" t="n">
-        <v>1666.367584691536</v>
+        <v>1764.867526536522</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.367584691536</v>
+        <v>1764.867526536522</v>
       </c>
       <c r="T13" t="n">
-        <v>1443.777140356254</v>
+        <v>1621.904612558663</v>
       </c>
       <c r="U13" t="n">
-        <v>1154.663756517155</v>
+        <v>1332.791228719564</v>
       </c>
       <c r="V13" t="n">
-        <v>1154.663756517155</v>
+        <v>1078.106740513677</v>
       </c>
       <c r="W13" t="n">
-        <v>1154.663756517155</v>
+        <v>788.6895704767167</v>
       </c>
       <c r="X13" t="n">
-        <v>926.6742056191379</v>
+        <v>788.6895704767167</v>
       </c>
       <c r="Y13" t="n">
-        <v>705.8816264756077</v>
+        <v>567.8969913331865</v>
       </c>
     </row>
     <row r="14">
@@ -5252,64 +5252,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2396.295458485217</v>
+        <v>2396.295458485218</v>
       </c>
       <c r="C14" t="n">
-        <v>2027.332941544805</v>
+        <v>2027.332941544806</v>
       </c>
       <c r="D14" t="n">
-        <v>1669.067242938055</v>
+        <v>1669.067242938056</v>
       </c>
       <c r="E14" t="n">
-        <v>1283.278990339811</v>
+        <v>1283.278990339812</v>
       </c>
       <c r="F14" t="n">
-        <v>872.2930855502033</v>
+        <v>872.2930855502041</v>
       </c>
       <c r="G14" t="n">
-        <v>456.7907963002074</v>
+        <v>456.7907963002081</v>
       </c>
       <c r="H14" t="n">
-        <v>154.8051062773834</v>
+        <v>154.8051062773835</v>
       </c>
       <c r="I14" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J14" t="n">
         <v>416.765552810105</v>
       </c>
       <c r="K14" t="n">
-        <v>761.0664997010439</v>
+        <v>1017.899815346876</v>
       </c>
       <c r="L14" t="n">
-        <v>1559.103335847743</v>
+        <v>1815.936651493575</v>
       </c>
       <c r="M14" t="n">
-        <v>2463.679626770356</v>
+        <v>2367.880520095147</v>
       </c>
       <c r="N14" t="n">
-        <v>3368.260910239679</v>
+        <v>2839.488348396606</v>
       </c>
       <c r="O14" t="n">
-        <v>4177.243727483875</v>
+        <v>3648.471165640802</v>
       </c>
       <c r="P14" t="n">
-        <v>4511.436741525533</v>
+        <v>4301.244900772228</v>
       </c>
       <c r="Q14" t="n">
-        <v>4714.229030664582</v>
+        <v>4714.229030664583</v>
       </c>
       <c r="R14" t="n">
-        <v>4811.84179035783</v>
+        <v>4811.841790357831</v>
       </c>
       <c r="S14" t="n">
-        <v>4691.756163507785</v>
+        <v>4691.756163507786</v>
       </c>
       <c r="T14" t="n">
-        <v>4483.896795253678</v>
+        <v>4483.896795253679</v>
       </c>
       <c r="U14" t="n">
-        <v>4230.331931399915</v>
+        <v>4230.331931399916</v>
       </c>
       <c r="V14" t="n">
         <v>3899.269044056346</v>
@@ -5321,7 +5321,7 @@
         <v>3173.034630525151</v>
       </c>
       <c r="Y14" t="n">
-        <v>2782.895298549339</v>
+        <v>2782.89529854934</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>342.2505571704321</v>
       </c>
       <c r="G15" t="n">
-        <v>205.6574728118002</v>
+        <v>205.6574728118003</v>
       </c>
       <c r="H15" t="n">
         <v>112.9344153394379</v>
       </c>
       <c r="I15" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J15" t="n">
         <v>293.4481641295708</v>
       </c>
       <c r="K15" t="n">
-        <v>495.3139940631564</v>
+        <v>515.5390079671524</v>
       </c>
       <c r="L15" t="n">
-        <v>813.0700553547193</v>
+        <v>833.2950692587152</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.233259469085</v>
+        <v>1223.458273373081</v>
       </c>
       <c r="N15" t="n">
-        <v>1618.131567545257</v>
+        <v>1638.356581449253</v>
       </c>
       <c r="O15" t="n">
-        <v>1975.462667272417</v>
+        <v>1995.687681176413</v>
       </c>
       <c r="P15" t="n">
         <v>2263.144325330412</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>747.7636580188961</v>
+        <v>710.0926992277027</v>
       </c>
       <c r="C16" t="n">
-        <v>747.7636580188961</v>
+        <v>541.1565162997958</v>
       </c>
       <c r="D16" t="n">
-        <v>597.6470186065603</v>
+        <v>391.0398768874601</v>
       </c>
       <c r="E16" t="n">
-        <v>449.7339250241671</v>
+        <v>243.126783305067</v>
       </c>
       <c r="F16" t="n">
-        <v>449.7339250241671</v>
+        <v>96.23683580715669</v>
       </c>
       <c r="G16" t="n">
-        <v>281.8382773786118</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="H16" t="n">
-        <v>133.9068253434858</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="I16" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J16" t="n">
-        <v>127.999000729456</v>
+        <v>127.9990007294559</v>
       </c>
       <c r="K16" t="n">
-        <v>310.0308313619055</v>
+        <v>310.0308313619057</v>
       </c>
       <c r="L16" t="n">
-        <v>598.4953378086143</v>
+        <v>598.4953378086144</v>
       </c>
       <c r="M16" t="n">
-        <v>913.0298372428936</v>
+        <v>913.0298372428937</v>
       </c>
       <c r="N16" t="n">
         <v>1225.520025721652</v>
@@ -5458,28 +5458,28 @@
         <v>1769.677235373768</v>
       </c>
       <c r="R16" t="n">
-        <v>1769.677235373768</v>
+        <v>1758.159792843089</v>
       </c>
       <c r="S16" t="n">
-        <v>1769.677235373768</v>
+        <v>1563.113738434772</v>
       </c>
       <c r="T16" t="n">
-        <v>1547.086791038485</v>
+        <v>1340.52329409949</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.973407199387</v>
+        <v>1340.52329409949</v>
       </c>
       <c r="V16" t="n">
-        <v>1257.973407199387</v>
+        <v>1340.52329409949</v>
       </c>
       <c r="W16" t="n">
-        <v>968.5562371624262</v>
+        <v>1340.52329409949</v>
       </c>
       <c r="X16" t="n">
-        <v>968.5562371624262</v>
+        <v>1112.533743201473</v>
       </c>
       <c r="Y16" t="n">
-        <v>747.7636580188961</v>
+        <v>891.7411640579425</v>
       </c>
     </row>
     <row r="17">
@@ -5504,55 +5504,55 @@
         <v>872.2930855502034</v>
       </c>
       <c r="G17" t="n">
-        <v>456.7907963002074</v>
+        <v>456.7907963002075</v>
       </c>
       <c r="H17" t="n">
-        <v>154.8051062773834</v>
+        <v>154.8051062773835</v>
       </c>
       <c r="I17" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J17" t="n">
         <v>416.765552810105</v>
       </c>
       <c r="K17" t="n">
-        <v>761.0664997010439</v>
+        <v>1017.899815346876</v>
       </c>
       <c r="L17" t="n">
-        <v>1559.103335847743</v>
+        <v>1463.304229172535</v>
       </c>
       <c r="M17" t="n">
-        <v>2463.679626770356</v>
+        <v>2367.880520095147</v>
       </c>
       <c r="N17" t="n">
-        <v>3368.260910239679</v>
+        <v>2839.488348396606</v>
       </c>
       <c r="O17" t="n">
-        <v>4177.243727483875</v>
+        <v>3648.471165640802</v>
       </c>
       <c r="P17" t="n">
-        <v>4511.436741525533</v>
+        <v>4301.244900772228</v>
       </c>
       <c r="Q17" t="n">
-        <v>4714.229030664582</v>
+        <v>4714.229030664583</v>
       </c>
       <c r="R17" t="n">
-        <v>4811.84179035783</v>
+        <v>4811.841790357831</v>
       </c>
       <c r="S17" t="n">
-        <v>4691.756163507785</v>
+        <v>4691.756163507786</v>
       </c>
       <c r="T17" t="n">
-        <v>4483.896795253678</v>
+        <v>4483.896795253679</v>
       </c>
       <c r="U17" t="n">
         <v>4230.331931399915</v>
       </c>
       <c r="V17" t="n">
-        <v>3899.269044056344</v>
+        <v>3899.269044056345</v>
       </c>
       <c r="W17" t="n">
-        <v>3546.500388786231</v>
+        <v>3546.50038878623</v>
       </c>
       <c r="X17" t="n">
         <v>3173.034630525151</v>
@@ -5583,13 +5583,13 @@
         <v>342.2505571704321</v>
       </c>
       <c r="G18" t="n">
-        <v>205.6574728118002</v>
+        <v>205.6574728118003</v>
       </c>
       <c r="H18" t="n">
         <v>112.9344153394379</v>
       </c>
       <c r="I18" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J18" t="n">
         <v>293.4481641295708</v>
@@ -5598,7 +5598,7 @@
         <v>495.3139940631564</v>
       </c>
       <c r="L18" t="n">
-        <v>813.0700553547193</v>
+        <v>813.0700553547192</v>
       </c>
       <c r="M18" t="n">
         <v>1203.233259469085</v>
@@ -5610,10 +5610,10 @@
         <v>1975.462667272417</v>
       </c>
       <c r="P18" t="n">
-        <v>2263.144325330412</v>
+        <v>2242.919311426416</v>
       </c>
       <c r="Q18" t="n">
-        <v>2599.989327440388</v>
+        <v>2569.059393052421</v>
       </c>
       <c r="R18" t="n">
         <v>2599.989327440388</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5067889519528</v>
+        <v>304.2337332282826</v>
       </c>
       <c r="C19" t="n">
-        <v>554.5067889519528</v>
+        <v>264.1324834527119</v>
       </c>
       <c r="D19" t="n">
-        <v>554.5067889519528</v>
+        <v>264.1324834527119</v>
       </c>
       <c r="E19" t="n">
-        <v>554.5067889519528</v>
+        <v>264.1324834527119</v>
       </c>
       <c r="F19" t="n">
-        <v>412.0639354878383</v>
+        <v>264.1324834527119</v>
       </c>
       <c r="G19" t="n">
-        <v>244.1682878422828</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="H19" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="I19" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J19" t="n">
-        <v>127.999000729456</v>
+        <v>127.9990007294559</v>
       </c>
       <c r="K19" t="n">
-        <v>310.0308313619055</v>
+        <v>310.0308313619057</v>
       </c>
       <c r="L19" t="n">
-        <v>598.4953378086143</v>
+        <v>598.4953378086144</v>
       </c>
       <c r="M19" t="n">
-        <v>913.0298372428936</v>
+        <v>913.0298372428937</v>
       </c>
       <c r="N19" t="n">
         <v>1225.520025721652</v>
@@ -5689,7 +5689,7 @@
         <v>1498.138997269937</v>
       </c>
       <c r="P19" t="n">
-        <v>1707.890941583273</v>
+        <v>1707.890941583272</v>
       </c>
       <c r="Q19" t="n">
         <v>1769.677235373768</v>
@@ -5710,13 +5710,13 @@
         <v>1003.2889189935</v>
       </c>
       <c r="W19" t="n">
-        <v>1003.2889189935</v>
+        <v>713.8717489565397</v>
       </c>
       <c r="X19" t="n">
-        <v>775.2993680954829</v>
+        <v>485.8821980585224</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.5067889519528</v>
+        <v>485.8821980585224</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.295458485217</v>
+        <v>2396.295458485218</v>
       </c>
       <c r="C20" t="n">
         <v>2027.332941544806</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.067242938055</v>
+        <v>1669.067242938056</v>
       </c>
       <c r="E20" t="n">
-        <v>1283.278990339811</v>
+        <v>1283.278990339812</v>
       </c>
       <c r="F20" t="n">
-        <v>872.2930855502034</v>
+        <v>872.2930855502041</v>
       </c>
       <c r="G20" t="n">
-        <v>456.7907963002074</v>
+        <v>456.7907963002081</v>
       </c>
       <c r="H20" t="n">
-        <v>154.8051062773834</v>
+        <v>154.8051062773835</v>
       </c>
       <c r="I20" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J20" t="n">
         <v>416.765552810105</v>
       </c>
       <c r="K20" t="n">
-        <v>696.9958569014233</v>
+        <v>1017.899815346876</v>
       </c>
       <c r="L20" t="n">
-        <v>1081.548090643177</v>
+        <v>1750.600268590133</v>
       </c>
       <c r="M20" t="n">
-        <v>1986.124381565789</v>
+        <v>2210.158161354841</v>
       </c>
       <c r="N20" t="n">
-        <v>2890.705665035112</v>
+        <v>3114.739444824164</v>
       </c>
       <c r="O20" t="n">
-        <v>3648.471165640801</v>
+        <v>3923.72226206836</v>
       </c>
       <c r="P20" t="n">
-        <v>4301.244900772227</v>
+        <v>4576.495997199786</v>
       </c>
       <c r="Q20" t="n">
-        <v>4714.229030664582</v>
+        <v>4779.288286338835</v>
       </c>
       <c r="R20" t="n">
-        <v>4811.84179035783</v>
+        <v>4811.841790357831</v>
       </c>
       <c r="S20" t="n">
         <v>4691.756163507786</v>
@@ -5783,19 +5783,19 @@
         <v>4483.896795253679</v>
       </c>
       <c r="U20" t="n">
-        <v>4230.331931399915</v>
+        <v>4230.331931399916</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.269044056345</v>
+        <v>3899.269044056346</v>
       </c>
       <c r="W20" t="n">
-        <v>3546.50038878623</v>
+        <v>3546.500388786231</v>
       </c>
       <c r="X20" t="n">
         <v>3173.034630525151</v>
       </c>
       <c r="Y20" t="n">
-        <v>2782.895298549339</v>
+        <v>2782.89529854934</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5820,37 @@
         <v>342.2505571704321</v>
       </c>
       <c r="G21" t="n">
-        <v>205.6574728118002</v>
+        <v>205.6574728118003</v>
       </c>
       <c r="H21" t="n">
         <v>112.9344153394379</v>
       </c>
       <c r="I21" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J21" t="n">
         <v>293.4481641295708</v>
       </c>
       <c r="K21" t="n">
-        <v>495.3139940631564</v>
+        <v>515.5390079671524</v>
       </c>
       <c r="L21" t="n">
-        <v>813.0700553547193</v>
+        <v>833.2950692587152</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.233259469085</v>
+        <v>1223.458273373081</v>
       </c>
       <c r="N21" t="n">
-        <v>1618.131567545257</v>
+        <v>1638.356581449253</v>
       </c>
       <c r="O21" t="n">
-        <v>1975.462667272417</v>
+        <v>1995.687681176413</v>
       </c>
       <c r="P21" t="n">
-        <v>2242.919311426416</v>
+        <v>2263.144325330412</v>
       </c>
       <c r="Q21" t="n">
-        <v>2569.059393052421</v>
+        <v>2599.989327440388</v>
       </c>
       <c r="R21" t="n">
         <v>2599.989327440388</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.9944182681</v>
+        <v>727.8717074609223</v>
       </c>
       <c r="C22" t="n">
-        <v>391.0582353401931</v>
+        <v>558.9355245330154</v>
       </c>
       <c r="D22" t="n">
-        <v>391.0582353401931</v>
+        <v>558.9355245330154</v>
       </c>
       <c r="E22" t="n">
-        <v>391.0582353401931</v>
+        <v>411.0224309506223</v>
       </c>
       <c r="F22" t="n">
-        <v>244.1682878422828</v>
+        <v>264.1324834527119</v>
       </c>
       <c r="G22" t="n">
-        <v>244.1682878422828</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="H22" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="I22" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J22" t="n">
-        <v>127.999000729456</v>
+        <v>127.9990007294558</v>
       </c>
       <c r="K22" t="n">
-        <v>310.0308313619056</v>
+        <v>310.0308313619054</v>
       </c>
       <c r="L22" t="n">
-        <v>598.4953378086143</v>
+        <v>598.4953378086141</v>
       </c>
       <c r="M22" t="n">
-        <v>913.0298372428936</v>
+        <v>913.0298372428934</v>
       </c>
       <c r="N22" t="n">
         <v>1225.520025721652</v>
@@ -5932,28 +5932,28 @@
         <v>1769.677235373768</v>
       </c>
       <c r="R22" t="n">
-        <v>1671.177293528782</v>
+        <v>1769.677235373768</v>
       </c>
       <c r="S22" t="n">
-        <v>1671.177293528782</v>
+        <v>1769.677235373768</v>
       </c>
       <c r="T22" t="n">
-        <v>1448.5868491935</v>
+        <v>1547.086791038486</v>
       </c>
       <c r="U22" t="n">
-        <v>1159.473465354401</v>
+        <v>1547.086791038486</v>
       </c>
       <c r="V22" t="n">
-        <v>1159.473465354401</v>
+        <v>1292.402302832599</v>
       </c>
       <c r="W22" t="n">
-        <v>870.0562953174406</v>
+        <v>1002.985132795638</v>
       </c>
       <c r="X22" t="n">
-        <v>642.0667444194232</v>
+        <v>1002.985132795638</v>
       </c>
       <c r="Y22" t="n">
-        <v>559.9944182681</v>
+        <v>909.520172291162</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2396.295458485217</v>
       </c>
       <c r="C23" t="n">
-        <v>2027.332941544806</v>
+        <v>2027.332941544805</v>
       </c>
       <c r="D23" t="n">
         <v>1669.067242938055</v>
@@ -5975,58 +5975,58 @@
         <v>1283.278990339811</v>
       </c>
       <c r="F23" t="n">
-        <v>872.2930855502034</v>
+        <v>872.2930855502036</v>
       </c>
       <c r="G23" t="n">
-        <v>456.7907963002075</v>
+        <v>456.7907963002081</v>
       </c>
       <c r="H23" t="n">
-        <v>154.8051062773834</v>
+        <v>154.8051062773839</v>
       </c>
       <c r="I23" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J23" t="n">
         <v>416.765552810105</v>
       </c>
       <c r="K23" t="n">
-        <v>761.0664997010439</v>
+        <v>696.9958569014232</v>
       </c>
       <c r="L23" t="n">
-        <v>1559.103335847743</v>
+        <v>1495.032693048122</v>
       </c>
       <c r="M23" t="n">
-        <v>2463.679626770356</v>
+        <v>2399.608983970735</v>
       </c>
       <c r="N23" t="n">
-        <v>3368.260910239679</v>
+        <v>3304.190267440058</v>
       </c>
       <c r="O23" t="n">
-        <v>4177.243727483875</v>
+        <v>3736.180905234136</v>
       </c>
       <c r="P23" t="n">
-        <v>4511.436741525533</v>
+        <v>4301.244900772228</v>
       </c>
       <c r="Q23" t="n">
-        <v>4714.229030664582</v>
+        <v>4714.229030664583</v>
       </c>
       <c r="R23" t="n">
-        <v>4811.84179035783</v>
+        <v>4811.841790357831</v>
       </c>
       <c r="S23" t="n">
-        <v>4691.756163507785</v>
+        <v>4691.756163507786</v>
       </c>
       <c r="T23" t="n">
-        <v>4483.896795253678</v>
+        <v>4483.896795253679</v>
       </c>
       <c r="U23" t="n">
         <v>4230.331931399915</v>
       </c>
       <c r="V23" t="n">
-        <v>3899.269044056344</v>
+        <v>3899.269044056345</v>
       </c>
       <c r="W23" t="n">
-        <v>3546.500388786229</v>
+        <v>3546.50038878623</v>
       </c>
       <c r="X23" t="n">
         <v>3173.034630525151</v>
@@ -6057,13 +6057,13 @@
         <v>342.2505571704321</v>
       </c>
       <c r="G24" t="n">
-        <v>205.6574728118002</v>
+        <v>205.6574728118003</v>
       </c>
       <c r="H24" t="n">
         <v>112.9344153394379</v>
       </c>
       <c r="I24" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J24" t="n">
         <v>293.4481641295708</v>
@@ -6072,7 +6072,7 @@
         <v>495.3139940631564</v>
       </c>
       <c r="L24" t="n">
-        <v>813.0700553547193</v>
+        <v>813.0700553547192</v>
       </c>
       <c r="M24" t="n">
         <v>1203.233259469085</v>
@@ -6084,10 +6084,10 @@
         <v>1975.462667272417</v>
       </c>
       <c r="P24" t="n">
-        <v>2263.144325330412</v>
+        <v>2242.919311426416</v>
       </c>
       <c r="Q24" t="n">
-        <v>2599.989327440388</v>
+        <v>2569.059393052421</v>
       </c>
       <c r="R24" t="n">
         <v>2599.989327440388</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>290.8361436502056</v>
+        <v>433.0686663806189</v>
       </c>
       <c r="C25" t="n">
-        <v>264.1324834527119</v>
+        <v>264.132483452712</v>
       </c>
       <c r="D25" t="n">
-        <v>264.1324834527119</v>
+        <v>264.132483452712</v>
       </c>
       <c r="E25" t="n">
-        <v>264.1324834527119</v>
+        <v>264.132483452712</v>
       </c>
       <c r="F25" t="n">
-        <v>264.1324834527119</v>
+        <v>264.132483452712</v>
       </c>
       <c r="G25" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="H25" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="I25" t="n">
-        <v>96.23683580715661</v>
+        <v>96.23683580715662</v>
       </c>
       <c r="J25" t="n">
-        <v>127.999000729456</v>
+        <v>127.9990007294558</v>
       </c>
       <c r="K25" t="n">
-        <v>310.0308313619056</v>
+        <v>310.0308313619054</v>
       </c>
       <c r="L25" t="n">
-        <v>598.4953378086143</v>
+        <v>598.4953378086141</v>
       </c>
       <c r="M25" t="n">
-        <v>913.0298372428938</v>
+        <v>913.0298372428934</v>
       </c>
       <c r="N25" t="n">
-        <v>1225.520025721653</v>
+        <v>1225.520025721652</v>
       </c>
       <c r="O25" t="n">
-        <v>1498.138997269938</v>
+        <v>1498.138997269937</v>
       </c>
       <c r="P25" t="n">
-        <v>1707.890941583273</v>
+        <v>1707.890941583272</v>
       </c>
       <c r="Q25" t="n">
-        <v>1769.677235373768</v>
+        <v>1769.677235373767</v>
       </c>
       <c r="R25" t="n">
-        <v>1769.677235373768</v>
+        <v>1769.677235373767</v>
       </c>
       <c r="S25" t="n">
         <v>1574.631180965451</v>
       </c>
       <c r="T25" t="n">
-        <v>1352.040736630169</v>
+        <v>1352.040736630168</v>
       </c>
       <c r="U25" t="n">
         <v>1062.92735279107</v>
       </c>
       <c r="V25" t="n">
-        <v>808.2428645851836</v>
+        <v>1062.92735279107</v>
       </c>
       <c r="W25" t="n">
-        <v>518.8256945482229</v>
+        <v>773.5101827541091</v>
       </c>
       <c r="X25" t="n">
-        <v>290.8361436502056</v>
+        <v>773.5101827541091</v>
       </c>
       <c r="Y25" t="n">
-        <v>290.8361436502056</v>
+        <v>552.717603610579</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>456.7907963002081</v>
       </c>
       <c r="H26" t="n">
-        <v>154.8051062773839</v>
+        <v>154.8051062773838</v>
       </c>
       <c r="I26" t="n">
         <v>96.23683580715662</v>
@@ -6227,19 +6227,19 @@
         <v>416.765552810105</v>
       </c>
       <c r="K26" t="n">
-        <v>819.4779580613944</v>
+        <v>761.0664997010451</v>
       </c>
       <c r="L26" t="n">
-        <v>1617.514794208094</v>
+        <v>1559.103335847744</v>
       </c>
       <c r="M26" t="n">
-        <v>2522.091085130706</v>
+        <v>2463.679626770357</v>
       </c>
       <c r="N26" t="n">
-        <v>3426.67236860003</v>
+        <v>3368.26091023968</v>
       </c>
       <c r="O26" t="n">
-        <v>3858.663006394108</v>
+        <v>4177.243727483876</v>
       </c>
       <c r="P26" t="n">
         <v>4511.436741525534</v>
@@ -6303,28 +6303,28 @@
         <v>96.23683580715662</v>
       </c>
       <c r="J27" t="n">
-        <v>206.3715519385193</v>
+        <v>293.4481641295708</v>
       </c>
       <c r="K27" t="n">
-        <v>408.2373818721049</v>
+        <v>495.3139940631564</v>
       </c>
       <c r="L27" t="n">
-        <v>725.9934431636678</v>
+        <v>813.0700553547192</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.156647278033</v>
+        <v>1203.233259469085</v>
       </c>
       <c r="N27" t="n">
-        <v>1531.054955354206</v>
+        <v>1618.131567545257</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.386055081366</v>
+        <v>1975.462667272417</v>
       </c>
       <c r="P27" t="n">
-        <v>2471.120840188903</v>
+        <v>2242.919311426416</v>
       </c>
       <c r="Q27" t="n">
-        <v>2599.989327440388</v>
+        <v>2569.059393052421</v>
       </c>
       <c r="R27" t="n">
         <v>2599.989327440388</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.23683580715661</v>
+        <v>514.1464613601613</v>
       </c>
       <c r="C28" t="n">
-        <v>96.23683580715658</v>
+        <v>514.1464613601613</v>
       </c>
       <c r="D28" t="n">
-        <v>96.23683580715658</v>
+        <v>514.1464613601613</v>
       </c>
       <c r="E28" t="n">
-        <v>96.23683580715658</v>
+        <v>514.1464613601612</v>
       </c>
       <c r="F28" t="n">
-        <v>96.23683580715662</v>
+        <v>367.2565138622508</v>
       </c>
       <c r="G28" t="n">
-        <v>96.23683580715662</v>
+        <v>199.3608662166956</v>
       </c>
       <c r="H28" t="n">
-        <v>96.23683580715662</v>
+        <v>199.3608662166956</v>
       </c>
       <c r="I28" t="n">
         <v>96.23683580715662</v>
       </c>
       <c r="J28" t="n">
-        <v>127.9990007294559</v>
+        <v>127.999000729456</v>
       </c>
       <c r="K28" t="n">
         <v>310.0308313619056</v>
@@ -6397,7 +6397,7 @@
         <v>1225.520025721652</v>
       </c>
       <c r="O28" t="n">
-        <v>1498.138997269938</v>
+        <v>1498.138997269937</v>
       </c>
       <c r="P28" t="n">
         <v>1707.890941583273</v>
@@ -6409,25 +6409,25 @@
         <v>1769.677235373768</v>
       </c>
       <c r="S28" t="n">
-        <v>1574.631180965451</v>
+        <v>1769.677235373768</v>
       </c>
       <c r="T28" t="n">
-        <v>1378.23400793065</v>
+        <v>1688.374928276934</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.120624091551</v>
+        <v>1399.261544437835</v>
       </c>
       <c r="V28" t="n">
-        <v>834.4361358856646</v>
+        <v>1144.577056231949</v>
       </c>
       <c r="W28" t="n">
-        <v>545.0189658487041</v>
+        <v>1144.577056231949</v>
       </c>
       <c r="X28" t="n">
-        <v>317.0294149506867</v>
+        <v>916.5875053339312</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.23683580715661</v>
+        <v>695.794926190401</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1283.278990339811</v>
       </c>
       <c r="F29" t="n">
-        <v>872.2930855502033</v>
+        <v>872.2930855502036</v>
       </c>
       <c r="G29" t="n">
-        <v>456.7907963002074</v>
+        <v>456.7907963002081</v>
       </c>
       <c r="H29" t="n">
-        <v>154.8051062773834</v>
+        <v>154.8051062773838</v>
       </c>
       <c r="I29" t="n">
         <v>96.23683580715662</v>
@@ -6464,19 +6464,19 @@
         <v>416.765552810105</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9958569014233</v>
+        <v>761.0664997010451</v>
       </c>
       <c r="L29" t="n">
-        <v>1495.032693048123</v>
+        <v>1559.103335847744</v>
       </c>
       <c r="M29" t="n">
-        <v>2399.608983970735</v>
+        <v>2463.679626770357</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.190267440059</v>
+        <v>3368.26091023968</v>
       </c>
       <c r="O29" t="n">
-        <v>4113.173084684255</v>
+        <v>4177.243727483876</v>
       </c>
       <c r="P29" t="n">
         <v>4511.436741525534</v>
@@ -6546,7 +6546,7 @@
         <v>495.3139940631564</v>
       </c>
       <c r="L30" t="n">
-        <v>813.0700553547193</v>
+        <v>813.0700553547192</v>
       </c>
       <c r="M30" t="n">
         <v>1203.233259469085</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.610141758382</v>
+        <v>1129.043829317923</v>
       </c>
       <c r="C31" t="n">
-        <v>721.610141758382</v>
+        <v>960.1076463900163</v>
       </c>
       <c r="D31" t="n">
-        <v>571.4935023460463</v>
+        <v>809.9910069776805</v>
       </c>
       <c r="E31" t="n">
-        <v>423.5804087636532</v>
+        <v>662.0779133952874</v>
       </c>
       <c r="F31" t="n">
-        <v>367.2565138622509</v>
+        <v>515.187965897377</v>
       </c>
       <c r="G31" t="n">
-        <v>199.3608662166956</v>
+        <v>347.2923182518217</v>
       </c>
       <c r="H31" t="n">
         <v>199.3608662166956</v>
@@ -6619,13 +6619,13 @@
         <v>96.23683580715662</v>
       </c>
       <c r="J31" t="n">
-        <v>127.9990007294564</v>
+        <v>127.999000729456</v>
       </c>
       <c r="K31" t="n">
-        <v>310.0308313619059</v>
+        <v>310.0308313619057</v>
       </c>
       <c r="L31" t="n">
-        <v>598.4953378086146</v>
+        <v>598.4953378086145</v>
       </c>
       <c r="M31" t="n">
         <v>913.029837242894</v>
@@ -6643,28 +6643,28 @@
         <v>1769.677235373768</v>
       </c>
       <c r="R31" t="n">
-        <v>1769.677235373768</v>
+        <v>1671.177293528782</v>
       </c>
       <c r="S31" t="n">
-        <v>1574.631180965451</v>
+        <v>1476.131239120465</v>
       </c>
       <c r="T31" t="n">
-        <v>1352.040736630169</v>
+        <v>1476.131239120465</v>
       </c>
       <c r="U31" t="n">
-        <v>1352.040736630169</v>
+        <v>1476.131239120465</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.040736630169</v>
+        <v>1476.131239120465</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.040736630169</v>
+        <v>1476.131239120465</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.051185732152</v>
+        <v>1476.131239120465</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.2586065886218</v>
+        <v>1255.338659976935</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1669.067242938055</v>
       </c>
       <c r="E32" t="n">
-        <v>1283.278990339811</v>
+        <v>1283.27899033981</v>
       </c>
       <c r="F32" t="n">
-        <v>872.2930855502034</v>
+        <v>872.2930855502029</v>
       </c>
       <c r="G32" t="n">
         <v>456.7907963002075</v>
@@ -6704,10 +6704,10 @@
         <v>1017.899815346876</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.304229172534</v>
+        <v>1815.936651493575</v>
       </c>
       <c r="M32" t="n">
-        <v>2367.880520095147</v>
+        <v>2275.494544258284</v>
       </c>
       <c r="N32" t="n">
         <v>2839.488348396606</v>
@@ -6783,7 +6783,7 @@
         <v>495.3139940631564</v>
       </c>
       <c r="L33" t="n">
-        <v>813.0700553547193</v>
+        <v>813.0700553547192</v>
       </c>
       <c r="M33" t="n">
         <v>1203.233259469085</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>735.8506185026268</v>
+        <v>735.8506185026262</v>
       </c>
       <c r="C34" t="n">
-        <v>623.0848942626194</v>
+        <v>623.0848942626187</v>
       </c>
       <c r="D34" t="n">
-        <v>529.1387135381831</v>
+        <v>529.1387135381833</v>
       </c>
       <c r="E34" t="n">
-        <v>437.3960786436894</v>
+        <v>437.3960786436896</v>
       </c>
       <c r="F34" t="n">
-        <v>346.6765898336785</v>
+        <v>346.6765898336787</v>
       </c>
       <c r="G34" t="n">
         <v>234.9514008760228</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1904075287961</v>
+        <v>143.1904075287962</v>
       </c>
       <c r="I34" t="n">
         <v>96.23683580715662</v>
       </c>
       <c r="J34" t="n">
-        <v>183.0516672894663</v>
+        <v>183.0516672894662</v>
       </c>
       <c r="K34" t="n">
-        <v>420.1361644819258</v>
+        <v>420.1361644819261</v>
       </c>
       <c r="L34" t="n">
-        <v>763.6533374886449</v>
+        <v>763.6533374886451</v>
       </c>
       <c r="M34" t="n">
-        <v>1133.240503482934</v>
+        <v>1133.240503482935</v>
       </c>
       <c r="N34" t="n">
         <v>1500.783358521704</v>
@@ -6892,16 +6892,16 @@
         <v>1629.530578177764</v>
       </c>
       <c r="V34" t="n">
-        <v>1431.016548659777</v>
+        <v>1431.016548659776</v>
       </c>
       <c r="W34" t="n">
-        <v>1197.769837310716</v>
+        <v>1197.769837310715</v>
       </c>
       <c r="X34" t="n">
-        <v>1025.950745100598</v>
+        <v>1025.950745100597</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.328624644967</v>
+        <v>861.3286246449665</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1041.402117214367</v>
       </c>
       <c r="F35" t="n">
-        <v>686.5866711126587</v>
+        <v>686.5866711126585</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2548405505622</v>
+        <v>327.2548405505618</v>
       </c>
       <c r="H35" t="n">
-        <v>81.43960921563719</v>
+        <v>81.43960921563723</v>
       </c>
       <c r="I35" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330985</v>
       </c>
       <c r="J35" t="n">
         <v>399.5705144362582</v>
       </c>
       <c r="K35" t="n">
-        <v>1000.70477697303</v>
+        <v>691.7913628637702</v>
       </c>
       <c r="L35" t="n">
-        <v>1425.562888088217</v>
+        <v>1076.343596605524</v>
       </c>
       <c r="M35" t="n">
-        <v>1885.120780852926</v>
+        <v>1980.919887528136</v>
       </c>
       <c r="N35" t="n">
-        <v>2356.728609154385</v>
+        <v>2885.501170997459</v>
       </c>
       <c r="O35" t="n">
-        <v>2788.719246948463</v>
+        <v>3317.491808791537</v>
       </c>
       <c r="P35" t="n">
-        <v>3441.492982079888</v>
+        <v>3651.684822833195</v>
       </c>
       <c r="Q35" t="n">
-        <v>3854.477111972243</v>
+        <v>3854.477111972244</v>
       </c>
       <c r="R35" t="n">
         <v>3952.089871665492</v>
       </c>
       <c r="S35" t="n">
-        <v>3888.174703503346</v>
+        <v>3888.174703503347</v>
       </c>
       <c r="T35" t="n">
         <v>3736.485793937139</v>
@@ -7008,10 +7008,10 @@
         <v>188.4624344379535</v>
       </c>
       <c r="H36" t="n">
-        <v>95.73937696559115</v>
+        <v>95.73937696559116</v>
       </c>
       <c r="I36" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330985</v>
       </c>
       <c r="J36" t="n">
         <v>276.253125755724</v>
@@ -7029,10 +7029,10 @@
         <v>1600.93652917141</v>
       </c>
       <c r="O36" t="n">
-        <v>1958.267628898571</v>
+        <v>1958.26762889857</v>
       </c>
       <c r="P36" t="n">
-        <v>2225.72427305257</v>
+        <v>2225.724273052569</v>
       </c>
       <c r="Q36" t="n">
         <v>2551.864354678574</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.6555801287806</v>
+        <v>718.6555801287802</v>
       </c>
       <c r="C37" t="n">
-        <v>605.8898558887731</v>
+        <v>605.8898558887728</v>
       </c>
       <c r="D37" t="n">
-        <v>511.9436751643369</v>
+        <v>511.9436751643365</v>
       </c>
       <c r="E37" t="n">
-        <v>420.2010402698433</v>
+        <v>420.2010402698428</v>
       </c>
       <c r="F37" t="n">
-        <v>329.4815514598324</v>
+        <v>329.4815514598318</v>
       </c>
       <c r="G37" t="n">
-        <v>217.7563625021766</v>
+        <v>217.756362502176</v>
       </c>
       <c r="H37" t="n">
-        <v>125.9953691549499</v>
+        <v>125.9953691549493</v>
       </c>
       <c r="I37" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330985</v>
       </c>
       <c r="J37" t="n">
-        <v>165.8566289156192</v>
+        <v>165.8566289156195</v>
       </c>
       <c r="K37" t="n">
         <v>402.9411261080791</v>
@@ -7120,25 +7120,25 @@
         <v>2150.574046322917</v>
       </c>
       <c r="S37" t="n">
-        <v>2011.6984506025</v>
+        <v>2011.698450602499</v>
       </c>
       <c r="T37" t="n">
         <v>1845.278464955117</v>
       </c>
       <c r="U37" t="n">
-        <v>1612.335539803918</v>
+        <v>1612.335539803917</v>
       </c>
       <c r="V37" t="n">
-        <v>1413.821510285931</v>
+        <v>1413.82151028593</v>
       </c>
       <c r="W37" t="n">
         <v>1180.574798936869</v>
       </c>
       <c r="X37" t="n">
-        <v>1008.755706726752</v>
+        <v>1008.755706726751</v>
       </c>
       <c r="Y37" t="n">
-        <v>844.1335862711207</v>
+        <v>844.1335862711205</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1985.907209296074</v>
+        <v>1985.907209296075</v>
       </c>
       <c r="C38" t="n">
         <v>1673.115151043562</v>
       </c>
       <c r="D38" t="n">
-        <v>1371.01991112471</v>
+        <v>1371.019911124711</v>
       </c>
       <c r="E38" t="n">
         <v>1041.402117214366</v>
       </c>
       <c r="F38" t="n">
-        <v>686.5866711126578</v>
+        <v>686.5866711126582</v>
       </c>
       <c r="G38" t="n">
-        <v>327.2548405505613</v>
+        <v>327.2548405505618</v>
       </c>
       <c r="H38" t="n">
-        <v>81.43960921563715</v>
+        <v>81.43960921563722</v>
       </c>
       <c r="I38" t="n">
-        <v>79.04179743330981</v>
+        <v>79.04179743330984</v>
       </c>
       <c r="J38" t="n">
-        <v>399.5705144362581</v>
+        <v>399.5705144362582</v>
       </c>
       <c r="K38" t="n">
-        <v>1000.70477697303</v>
+        <v>679.8008185275764</v>
       </c>
       <c r="L38" t="n">
-        <v>1385.257010714783</v>
+        <v>1299.125211020081</v>
       </c>
       <c r="M38" t="n">
-        <v>1844.814903479491</v>
+        <v>2203.701501942694</v>
       </c>
       <c r="N38" t="n">
-        <v>2316.42273178095</v>
+        <v>2675.309330244153</v>
       </c>
       <c r="O38" t="n">
-        <v>2788.719246948462</v>
+        <v>3107.299968038231</v>
       </c>
       <c r="P38" t="n">
-        <v>3441.492982079887</v>
+        <v>3441.492982079889</v>
       </c>
       <c r="Q38" t="n">
-        <v>3854.477111972242</v>
+        <v>3854.477111972244</v>
       </c>
       <c r="R38" t="n">
-        <v>3952.089871665491</v>
+        <v>3952.089871665492</v>
       </c>
       <c r="S38" t="n">
-        <v>3888.174703503345</v>
+        <v>3888.174703503347</v>
       </c>
       <c r="T38" t="n">
-        <v>3736.485793937138</v>
+        <v>3736.485793937139</v>
       </c>
       <c r="U38" t="n">
         <v>3539.091388771275</v>
       </c>
       <c r="V38" t="n">
-        <v>3264.198960115603</v>
+        <v>3264.198960115604</v>
       </c>
       <c r="W38" t="n">
         <v>2967.600763533389</v>
       </c>
       <c r="X38" t="n">
-        <v>2650.305463960208</v>
+        <v>2650.305463960209</v>
       </c>
       <c r="Y38" t="n">
-        <v>2316.336590672296</v>
+        <v>2316.336590672297</v>
       </c>
     </row>
     <row r="39">
@@ -7236,19 +7236,19 @@
         <v>630.8275317751559</v>
       </c>
       <c r="E39" t="n">
-        <v>471.5900767697003</v>
+        <v>471.5900767697004</v>
       </c>
       <c r="F39" t="n">
-        <v>325.0555187965853</v>
+        <v>325.0555187965854</v>
       </c>
       <c r="G39" t="n">
-        <v>188.4624344379534</v>
+        <v>188.4624344379535</v>
       </c>
       <c r="H39" t="n">
-        <v>95.73937696559112</v>
+        <v>95.73937696559115</v>
       </c>
       <c r="I39" t="n">
-        <v>79.04179743330981</v>
+        <v>79.04179743330984</v>
       </c>
       <c r="J39" t="n">
         <v>276.253125755724</v>
@@ -7312,22 +7312,22 @@
         <v>605.8898558887726</v>
       </c>
       <c r="D40" t="n">
-        <v>511.9436751643363</v>
+        <v>511.9436751643362</v>
       </c>
       <c r="E40" t="n">
-        <v>420.2010402698427</v>
+        <v>420.2010402698426</v>
       </c>
       <c r="F40" t="n">
-        <v>329.4815514598318</v>
+        <v>329.4815514598316</v>
       </c>
       <c r="G40" t="n">
-        <v>217.756362502176</v>
+        <v>217.7563625021758</v>
       </c>
       <c r="H40" t="n">
-        <v>125.9953691549493</v>
+        <v>125.9953691549494</v>
       </c>
       <c r="I40" t="n">
-        <v>79.04179743330981</v>
+        <v>79.04179743330984</v>
       </c>
       <c r="J40" t="n">
         <v>165.8566289156195</v>
@@ -7336,7 +7336,7 @@
         <v>402.9411261080793</v>
       </c>
       <c r="L40" t="n">
-        <v>746.4582991147984</v>
+        <v>746.4582991147981</v>
       </c>
       <c r="M40" t="n">
         <v>1116.045465109088</v>
@@ -7357,13 +7357,13 @@
         <v>2150.574046322917</v>
       </c>
       <c r="S40" t="n">
-        <v>2011.698450602499</v>
+        <v>2011.6984506025</v>
       </c>
       <c r="T40" t="n">
         <v>1845.278464955117</v>
       </c>
       <c r="U40" t="n">
-        <v>1612.335539803917</v>
+        <v>1612.335539803918</v>
       </c>
       <c r="V40" t="n">
         <v>1413.82151028593</v>
@@ -7375,7 +7375,7 @@
         <v>1008.755706726751</v>
       </c>
       <c r="Y40" t="n">
-        <v>844.1335862711202</v>
+        <v>844.1335862711203</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1041.402117214367</v>
       </c>
       <c r="F41" t="n">
-        <v>686.5866711126587</v>
+        <v>686.5866711126585</v>
       </c>
       <c r="G41" t="n">
-        <v>327.2548405505617</v>
+        <v>327.2548405505618</v>
       </c>
       <c r="H41" t="n">
-        <v>81.43960921563719</v>
+        <v>81.43960921563723</v>
       </c>
       <c r="I41" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330985</v>
       </c>
       <c r="J41" t="n">
-        <v>399.5705144362582</v>
+        <v>232.1648654159052</v>
       </c>
       <c r="K41" t="n">
-        <v>1000.70477697303</v>
+        <v>512.3951695072234</v>
       </c>
       <c r="L41" t="n">
-        <v>1425.562888088217</v>
+        <v>1310.432005653923</v>
       </c>
       <c r="M41" t="n">
-        <v>1885.120780852926</v>
+        <v>1769.989898418631</v>
       </c>
       <c r="N41" t="n">
-        <v>2356.728609154385</v>
+        <v>2674.571181887954</v>
       </c>
       <c r="O41" t="n">
-        <v>2788.719246948463</v>
+        <v>3382.55106446579</v>
       </c>
       <c r="P41" t="n">
-        <v>3441.492982079888</v>
+        <v>3716.744078507448</v>
       </c>
       <c r="Q41" t="n">
-        <v>3854.477111972243</v>
+        <v>3919.536367646497</v>
       </c>
       <c r="R41" t="n">
         <v>3952.089871665492</v>
       </c>
       <c r="S41" t="n">
-        <v>3888.174703503346</v>
+        <v>3888.174703503347</v>
       </c>
       <c r="T41" t="n">
         <v>3736.485793937139</v>
@@ -7482,10 +7482,10 @@
         <v>188.4624344379535</v>
       </c>
       <c r="H42" t="n">
-        <v>95.73937696559115</v>
+        <v>95.73937696559116</v>
       </c>
       <c r="I42" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330985</v>
       </c>
       <c r="J42" t="n">
         <v>276.253125755724</v>
@@ -7503,10 +7503,10 @@
         <v>1600.93652917141</v>
       </c>
       <c r="O42" t="n">
-        <v>1958.267628898571</v>
+        <v>1958.26762889857</v>
       </c>
       <c r="P42" t="n">
-        <v>2225.72427305257</v>
+        <v>2225.724273052569</v>
       </c>
       <c r="Q42" t="n">
         <v>2551.864354678574</v>
@@ -7549,37 +7549,37 @@
         <v>605.8898558887726</v>
       </c>
       <c r="D43" t="n">
-        <v>511.9436751643363</v>
+        <v>511.9436751643362</v>
       </c>
       <c r="E43" t="n">
-        <v>420.2010402698427</v>
+        <v>420.2010402698426</v>
       </c>
       <c r="F43" t="n">
-        <v>329.4815514598318</v>
+        <v>329.4815514598317</v>
       </c>
       <c r="G43" t="n">
-        <v>217.756362502176</v>
+        <v>217.7563625021758</v>
       </c>
       <c r="H43" t="n">
-        <v>125.9953691549493</v>
+        <v>125.9953691549491</v>
       </c>
       <c r="I43" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330985</v>
       </c>
       <c r="J43" t="n">
-        <v>165.8566289156195</v>
+        <v>165.8566289156196</v>
       </c>
       <c r="K43" t="n">
-        <v>402.9411261080794</v>
+        <v>402.9411261080795</v>
       </c>
       <c r="L43" t="n">
-        <v>746.4582991147984</v>
+        <v>746.4582991147986</v>
       </c>
       <c r="M43" t="n">
         <v>1116.045465109088</v>
       </c>
       <c r="N43" t="n">
-        <v>1483.588320147857</v>
+        <v>1483.588320147858</v>
       </c>
       <c r="O43" t="n">
         <v>1811.259958256152</v>
@@ -7606,13 +7606,13 @@
         <v>1413.82151028593</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.574798936869</v>
+        <v>1180.574798936868</v>
       </c>
       <c r="X43" t="n">
         <v>1008.755706726751</v>
       </c>
       <c r="Y43" t="n">
-        <v>844.1335862711202</v>
+        <v>844.1335862711203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1985.907209296075</v>
+        <v>1985.907209296073</v>
       </c>
       <c r="C44" t="n">
-        <v>1673.115151043563</v>
+        <v>1673.115151043561</v>
       </c>
       <c r="D44" t="n">
-        <v>1371.019911124712</v>
+        <v>1371.01991112471</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.402117214367</v>
+        <v>1041.402117214365</v>
       </c>
       <c r="F44" t="n">
-        <v>686.5866711126587</v>
+        <v>686.5866711126573</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2548405505622</v>
+        <v>327.2548405505609</v>
       </c>
       <c r="H44" t="n">
-        <v>81.43960921563722</v>
+        <v>81.43960921563715</v>
       </c>
       <c r="I44" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330981</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5705144362582</v>
+        <v>399.5705144362581</v>
       </c>
       <c r="K44" t="n">
-        <v>679.8008185275764</v>
+        <v>1000.70477697303</v>
       </c>
       <c r="L44" t="n">
-        <v>1064.35305226933</v>
+        <v>1385.257010714783</v>
       </c>
       <c r="M44" t="n">
-        <v>1968.929343191942</v>
+        <v>1844.814903479491</v>
       </c>
       <c r="N44" t="n">
-        <v>2440.537171493401</v>
+        <v>2316.42273178095</v>
       </c>
       <c r="O44" t="n">
-        <v>2872.52780928748</v>
+        <v>2788.719246948462</v>
       </c>
       <c r="P44" t="n">
-        <v>3441.492982079889</v>
+        <v>3441.492982079887</v>
       </c>
       <c r="Q44" t="n">
-        <v>3854.477111972244</v>
+        <v>3854.477111972242</v>
       </c>
       <c r="R44" t="n">
-        <v>3952.089871665492</v>
+        <v>3952.089871665491</v>
       </c>
       <c r="S44" t="n">
-        <v>3888.174703503347</v>
+        <v>3888.174703503345</v>
       </c>
       <c r="T44" t="n">
-        <v>3736.48579393714</v>
+        <v>3736.485793937137</v>
       </c>
       <c r="U44" t="n">
-        <v>3539.091388771276</v>
+        <v>3539.091388771274</v>
       </c>
       <c r="V44" t="n">
-        <v>3264.198960115605</v>
+        <v>3264.198960115603</v>
       </c>
       <c r="W44" t="n">
-        <v>2967.60076353339</v>
+        <v>2967.600763533388</v>
       </c>
       <c r="X44" t="n">
-        <v>2650.30546396021</v>
+        <v>2650.305463960208</v>
       </c>
       <c r="Y44" t="n">
-        <v>2316.336590672297</v>
+        <v>2316.336590672296</v>
       </c>
     </row>
     <row r="45">
@@ -7710,28 +7710,28 @@
         <v>630.8275317751559</v>
       </c>
       <c r="E45" t="n">
-        <v>471.5900767697004</v>
+        <v>471.5900767697003</v>
       </c>
       <c r="F45" t="n">
-        <v>325.0555187965854</v>
+        <v>325.0555187965853</v>
       </c>
       <c r="G45" t="n">
-        <v>188.4624344379535</v>
+        <v>188.4624344379534</v>
       </c>
       <c r="H45" t="n">
-        <v>95.73937696559115</v>
+        <v>95.73937696559112</v>
       </c>
       <c r="I45" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330981</v>
       </c>
       <c r="J45" t="n">
-        <v>276.253125755724</v>
+        <v>276.2531257557239</v>
       </c>
       <c r="K45" t="n">
-        <v>478.1189556893096</v>
+        <v>478.1189556893095</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8750169808725</v>
+        <v>795.8750169808724</v>
       </c>
       <c r="M45" t="n">
         <v>1186.038221095238</v>
@@ -7740,13 +7740,13 @@
         <v>1600.93652917141</v>
       </c>
       <c r="O45" t="n">
-        <v>1958.267628898571</v>
+        <v>1958.26762889857</v>
       </c>
       <c r="P45" t="n">
-        <v>2225.72427305257</v>
+        <v>2245.949286956565</v>
       </c>
       <c r="Q45" t="n">
-        <v>2551.864354678574</v>
+        <v>2582.794289066541</v>
       </c>
       <c r="R45" t="n">
         <v>2582.794289066541</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.6555801287802</v>
+        <v>718.6555801287799</v>
       </c>
       <c r="C46" t="n">
-        <v>605.8898558887728</v>
+        <v>605.8898558887724</v>
       </c>
       <c r="D46" t="n">
-        <v>511.9436751643365</v>
+        <v>511.9436751643362</v>
       </c>
       <c r="E46" t="n">
-        <v>420.2010402698428</v>
+        <v>420.2010402698426</v>
       </c>
       <c r="F46" t="n">
-        <v>329.4815514598319</v>
+        <v>329.4815514598317</v>
       </c>
       <c r="G46" t="n">
-        <v>217.756362502176</v>
+        <v>217.7563625021759</v>
       </c>
       <c r="H46" t="n">
-        <v>125.9953691549494</v>
+        <v>125.9953691549493</v>
       </c>
       <c r="I46" t="n">
-        <v>79.04179743330984</v>
+        <v>79.04179743330981</v>
       </c>
       <c r="J46" t="n">
         <v>165.8566289156194</v>
       </c>
       <c r="K46" t="n">
-        <v>402.9411261080793</v>
+        <v>402.9411261080792</v>
       </c>
       <c r="L46" t="n">
         <v>746.4582991147983</v>
@@ -7837,7 +7837,7 @@
         <v>1845.278464955117</v>
       </c>
       <c r="U46" t="n">
-        <v>1612.335539803917</v>
+        <v>1612.335539803918</v>
       </c>
       <c r="V46" t="n">
         <v>1413.82151028593</v>
@@ -7849,7 +7849,7 @@
         <v>1008.755706726751</v>
       </c>
       <c r="Y46" t="n">
-        <v>844.1335862711205</v>
+        <v>844.1335862711201</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>272.9240860775211</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>32.00774891535423</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>325.3552720823483</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>356.5976300499914</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>14.27931184367765</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>64.71782100971774</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>93.31916751198355</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20.42930697373339</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>20.42930697373305</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>14.27931184367762</v>
+        <v>14.27931184367765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>64.71782100971774</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>61.4668485696015</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>20.42930697373305</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R18" t="n">
-        <v>14.27931184367762</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>351.6648681833365</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>329.065517991526</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>20.42930697373339</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.2642367419392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>14.27931184367765</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>64.71782100971774</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>233.2030116125597</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>20.42930697373305</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R24" t="n">
-        <v>14.27931184367762</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>123.7192941009808</v>
+        <v>64.71782100971905</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,10 +9887,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>38.1348614100538</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R27" t="n">
-        <v>14.27931184367762</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>64.71782100971905</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>64.71782100971819</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.2642367419392</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>61.4668485696007</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>93.31916751198338</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.2642367419392</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>12.11166094565027</v>
       </c>
       <c r="L35" t="n">
-        <v>40.71300744791353</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.2642367419392</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>237.1435946977289</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>40.71300744791267</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>40.71300744791353</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>278.7770149330886</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.2642367419392</v>
+        <v>199.2642367419397</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>40.71300744791279</v>
       </c>
       <c r="P44" t="n">
-        <v>237.1435946977285</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>20.42930697373333</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.2642367419392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>14.27931184367765</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>175.3363879292885</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.98258776552456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>233.3189756948093</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>153.530465559243</v>
+        <v>166.2166911690997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.0927901054436</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.51494242653607</v>
       </c>
       <c r="S13" t="n">
         <v>193.0955938642338</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>78.83125505384898</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2166911690997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.4521375147749</v>
       </c>
       <c r="I16" t="n">
-        <v>64.79950046447773</v>
+        <v>102.0927901054436</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.51494242653605</v>
+        <v>86.11267432116422</v>
       </c>
       <c r="S16" t="n">
-        <v>193.0955938642338</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2222500007077</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5465838208133</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>4.402623093457919</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.4521375147749</v>
       </c>
       <c r="I19" t="n">
         <v>102.0927901054436</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.51494242653605</v>
+        <v>97.51494242653607</v>
       </c>
       <c r="S19" t="n">
         <v>193.0955938642338</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2166911690997</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.4521375147749</v>
       </c>
       <c r="I22" t="n">
         <v>102.0927901054436</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.51494242653607</v>
       </c>
       <c r="S22" t="n">
         <v>193.0955938642338</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2222500007077</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.3330504622849</v>
+        <v>126.0543424526635</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>61.3795323242767</v>
       </c>
       <c r="C25" t="n">
-        <v>140.8101975031093</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.51494242653605</v>
+        <v>97.51494242653607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2166911690997</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>146.4521375147749</v>
       </c>
       <c r="I28" t="n">
-        <v>102.0927901054436</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.51494242653605</v>
+        <v>97.51494242653607</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.0955938642338</v>
       </c>
       <c r="T28" t="n">
-        <v>25.9313385874764</v>
+        <v>139.8752558660636</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>54.80009782951592</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>89.66039207054314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.4521375147749</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.51494242653605</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3645398919294</v>
       </c>
       <c r="U31" t="n">
         <v>286.2222500007077</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
         <v>231195.4220893373</v>
       </c>
       <c r="F2" t="n">
-        <v>236767.0792289293</v>
+        <v>236767.0792289294</v>
       </c>
       <c r="G2" t="n">
         <v>236767.0792289294</v>
@@ -26344,10 +26344,10 @@
         <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26375,7 +26375,7 @@
         <v>1059752.096482866</v>
       </c>
       <c r="F3" t="n">
-        <v>17226.3329287598</v>
+        <v>17226.33292876002</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44487.00328081637</v>
+        <v>44487.00328081636</v>
       </c>
       <c r="M3" t="n">
-        <v>171174.9427357001</v>
+        <v>171174.9427356999</v>
       </c>
       <c r="N3" t="n">
-        <v>14725.34445475222</v>
+        <v>14725.34445475244</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>41171.39123264852</v>
+        <v>41171.39123264847</v>
       </c>
       <c r="F4" t="n">
-        <v>45463.40341547878</v>
+        <v>45463.40341547886</v>
       </c>
       <c r="G4" t="n">
-        <v>45463.40341547884</v>
+        <v>45463.40341547887</v>
       </c>
       <c r="H4" t="n">
-        <v>45463.40341547883</v>
+        <v>45463.40341547885</v>
       </c>
       <c r="I4" t="n">
-        <v>45463.4034154789</v>
+        <v>45463.40341547887</v>
       </c>
       <c r="J4" t="n">
-        <v>45463.40341547884</v>
+        <v>45463.40341547887</v>
       </c>
       <c r="K4" t="n">
-        <v>45463.40341547884</v>
+        <v>45463.40341547887</v>
       </c>
       <c r="L4" t="n">
-        <v>63761.4548062962</v>
+        <v>63761.45480629621</v>
       </c>
       <c r="M4" t="n">
         <v>86314.35468371277</v>
@@ -26454,10 +26454,10 @@
         <v>86314.35468371277</v>
       </c>
       <c r="O4" t="n">
+        <v>86314.35468371278</v>
+      </c>
+      <c r="P4" t="n">
         <v>86314.35468371277</v>
-      </c>
-      <c r="P4" t="n">
-        <v>86314.35468371275</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>90934.14771721938</v>
+        <v>90934.14771721934</v>
       </c>
       <c r="F5" t="n">
-        <v>94589.52643352644</v>
+        <v>94589.52643352645</v>
       </c>
       <c r="G5" t="n">
-        <v>94589.52643352644</v>
+        <v>94589.52643352645</v>
       </c>
       <c r="H5" t="n">
-        <v>94589.52643352644</v>
+        <v>94589.52643352645</v>
       </c>
       <c r="I5" t="n">
-        <v>94589.52643352644</v>
+        <v>94589.52643352645</v>
       </c>
       <c r="J5" t="n">
         <v>94589.52643352645</v>
@@ -26497,19 +26497,19 @@
         <v>94589.52643352645</v>
       </c>
       <c r="L5" t="n">
-        <v>99264.49878204515</v>
+        <v>99264.49878204514</v>
       </c>
       <c r="M5" t="n">
         <v>86196.26961792159</v>
       </c>
       <c r="N5" t="n">
-        <v>86196.26961792157</v>
+        <v>86196.26961792159</v>
       </c>
       <c r="O5" t="n">
         <v>86196.26961792159</v>
       </c>
       <c r="P5" t="n">
-        <v>86196.26961792159</v>
+        <v>86196.26961792156</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237171.4366129337</v>
+        <v>-237171.4366129338</v>
       </c>
       <c r="C6" t="n">
         <v>-156402.005081386</v>
       </c>
       <c r="D6" t="n">
-        <v>-156402.005081386</v>
+        <v>-156402.0050813861</v>
       </c>
       <c r="E6" t="n">
-        <v>-960662.2133433963</v>
+        <v>-960788.1892506457</v>
       </c>
       <c r="F6" t="n">
-        <v>79487.8164511643</v>
+        <v>79408.27102007784</v>
       </c>
       <c r="G6" t="n">
-        <v>96714.1493799241</v>
+        <v>96634.60394883773</v>
       </c>
       <c r="H6" t="n">
-        <v>96714.1493799241</v>
+        <v>96634.60394883784</v>
       </c>
       <c r="I6" t="n">
-        <v>96714.14937992404</v>
+        <v>96634.60394883773</v>
       </c>
       <c r="J6" t="n">
-        <v>33654.20678081778</v>
+        <v>33574.66134973157</v>
       </c>
       <c r="K6" t="n">
-        <v>96714.14937992409</v>
+        <v>96634.60394883779</v>
       </c>
       <c r="L6" t="n">
-        <v>38799.57409012731</v>
+        <v>38799.57409012732</v>
       </c>
       <c r="M6" t="n">
-        <v>-97373.03607804942</v>
+        <v>-97373.03607804936</v>
       </c>
       <c r="N6" t="n">
-        <v>59076.56220289842</v>
+        <v>59076.56220289815</v>
       </c>
       <c r="O6" t="n">
         <v>73801.90665765063</v>
       </c>
       <c r="P6" t="n">
-        <v>73801.90665765063</v>
+        <v>73801.90665765075</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="M2" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="N2" t="n">
+        <v>55.60875410102045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>55.60875410102044</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.60875410102049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>55.60875410102047</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.60875410102045</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="F3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="G3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="H3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="I3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="J3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="K3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="L3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="M3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="N3" t="n">
         <v>983.9234504627257</v>
       </c>
       <c r="O3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="P3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.839087123881</v>
+        <v>1142.83908712388</v>
       </c>
       <c r="F4" t="n">
         <v>1202.960447589458</v>
@@ -26820,16 +26820,16 @@
         <v>1202.960447589458</v>
       </c>
       <c r="M4" t="n">
-        <v>988.0224679163729</v>
+        <v>988.0224679163731</v>
       </c>
       <c r="N4" t="n">
+        <v>988.022467916373</v>
+      </c>
+      <c r="O4" t="n">
+        <v>988.0224679163731</v>
+      </c>
+      <c r="P4" t="n">
         <v>988.0224679163726</v>
-      </c>
-      <c r="O4" t="n">
-        <v>988.0224679163729</v>
-      </c>
-      <c r="P4" t="n">
-        <v>988.022467916373</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>983.9234504627257</v>
+        <v>983.9234504627256</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>901.8247982462219</v>
+        <v>901.8247982462212</v>
       </c>
       <c r="F4" t="n">
-        <v>60.12136046557657</v>
+        <v>60.12136046557737</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>686.886818573137</v>
+        <v>686.8868185731366</v>
       </c>
       <c r="N4" t="n">
-        <v>60.12136046557634</v>
+        <v>60.12136046557725</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>901.8247982462219</v>
+        <v>901.8247982462212</v>
       </c>
       <c r="N4" t="n">
-        <v>60.12136046557657</v>
+        <v>60.12136046557737</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>319.5141023699695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>55.53658300389105</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.6466101356547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>130.88463262487</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>363.7840648101838</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>69.40972953276946</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>25.84805481412863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>133.416483154574</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27907,10 +27907,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>159.5856446526967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>3.258536399289881</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.8728004813312</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.3886183277161</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="C34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="D34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="E34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="F34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="G34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="H34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="I34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="J34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="K34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="L34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="M34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="N34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="O34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="P34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="R34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="S34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="T34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="U34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="V34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="W34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="X34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="C35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="D35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="E35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="F35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="G35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="H35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="I35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="T35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="U35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="V35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="W35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="X35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="C37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="D37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="E37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="F37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="G37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="H37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="I37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="J37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="K37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="L37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="M37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="N37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="O37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="P37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="R37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="S37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="T37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="U37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="V37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="W37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="X37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102045</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="C38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="D38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="E38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="F38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="G38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="H38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="I38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="T38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="U38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="V38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="W38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="X38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="C40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="D40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="E40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="F40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="G40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="H40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="I40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="J40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="K40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="L40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="M40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="N40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="O40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="P40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="R40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="S40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="T40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="U40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="V40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="W40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="X40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.60875410102049</v>
+        <v>55.60875410102045</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="C41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="D41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="E41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="F41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="G41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="H41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="I41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="T41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="U41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="V41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="W41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="X41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="C43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="D43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="E43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="F43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="G43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="H43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="I43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="J43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="K43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="L43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="M43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="N43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="O43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="P43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="R43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="S43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="T43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="U43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="V43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="W43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="X43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.60875410102047</v>
+        <v>55.60875410102044</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="C44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="D44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="E44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="F44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="G44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="H44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="I44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="T44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="U44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="V44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="W44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="X44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="C46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="D46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="E46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="F46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="G46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="H46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="I46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="J46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="K46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="L46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="M46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="N46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="O46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="P46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="R46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="S46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="T46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="U46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="V46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="W46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="X46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.60875410102045</v>
+        <v>55.60875410102049</v>
       </c>
     </row>
   </sheetData>
@@ -31765,19 +31765,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L11" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M11" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N11" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O11" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P11" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q11" t="n">
         <v>427.1463859744991</v>
@@ -31786,7 +31786,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S11" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T11" t="n">
         <v>17.31507499256515</v>
@@ -31832,19 +31832,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H12" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I12" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J12" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K12" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L12" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M12" t="n">
         <v>536.2382805021854</v>
@@ -31853,22 +31853,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O12" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P12" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R12" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S12" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T12" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U12" t="n">
         <v>0.1392344505371782</v>
@@ -31914,7 +31914,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I13" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J13" t="n">
         <v>125.4421749876822</v>
@@ -31926,7 +31926,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M13" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N13" t="n">
         <v>271.5144826498208</v>
@@ -31938,16 +31938,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R13" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S13" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T13" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U13" t="n">
         <v>0.09677935578321901</v>
@@ -32002,19 +32002,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L14" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M14" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N14" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P14" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q14" t="n">
         <v>427.1463859744991</v>
@@ -32023,7 +32023,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S14" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T14" t="n">
         <v>17.31507499256515</v>
@@ -32069,19 +32069,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H15" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I15" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J15" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K15" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L15" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M15" t="n">
         <v>536.2382805021854</v>
@@ -32090,22 +32090,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O15" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P15" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q15" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R15" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S15" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T15" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U15" t="n">
         <v>0.1392344505371782</v>
@@ -32151,7 +32151,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I16" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J16" t="n">
         <v>125.4421749876822</v>
@@ -32163,7 +32163,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M16" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N16" t="n">
         <v>271.5144826498208</v>
@@ -32175,16 +32175,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R16" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S16" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T16" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U16" t="n">
         <v>0.09677935578321901</v>
@@ -32239,19 +32239,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L17" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M17" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N17" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O17" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P17" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q17" t="n">
         <v>427.1463859744991</v>
@@ -32260,7 +32260,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S17" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T17" t="n">
         <v>17.31507499256515</v>
@@ -32306,19 +32306,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H18" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I18" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J18" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K18" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L18" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M18" t="n">
         <v>536.2382805021854</v>
@@ -32327,22 +32327,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O18" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P18" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R18" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S18" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T18" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U18" t="n">
         <v>0.1392344505371782</v>
@@ -32388,7 +32388,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I19" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J19" t="n">
         <v>125.4421749876822</v>
@@ -32400,7 +32400,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M19" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N19" t="n">
         <v>271.5144826498208</v>
@@ -32412,16 +32412,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q19" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R19" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S19" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T19" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U19" t="n">
         <v>0.09677935578321901</v>
@@ -32476,19 +32476,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L20" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M20" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N20" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O20" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P20" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q20" t="n">
         <v>427.1463859744991</v>
@@ -32497,7 +32497,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S20" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T20" t="n">
         <v>17.31507499256515</v>
@@ -32543,19 +32543,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H21" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I21" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J21" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K21" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L21" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M21" t="n">
         <v>536.2382805021854</v>
@@ -32564,22 +32564,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O21" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P21" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q21" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R21" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S21" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T21" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U21" t="n">
         <v>0.1392344505371782</v>
@@ -32625,7 +32625,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I22" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J22" t="n">
         <v>125.4421749876822</v>
@@ -32637,7 +32637,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M22" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N22" t="n">
         <v>271.5144826498208</v>
@@ -32649,16 +32649,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q22" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R22" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S22" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T22" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U22" t="n">
         <v>0.09677935578321901</v>
@@ -32713,19 +32713,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L23" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M23" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N23" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O23" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P23" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q23" t="n">
         <v>427.1463859744991</v>
@@ -32734,7 +32734,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S23" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T23" t="n">
         <v>17.31507499256515</v>
@@ -32780,19 +32780,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H24" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I24" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J24" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K24" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L24" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M24" t="n">
         <v>536.2382805021854</v>
@@ -32801,22 +32801,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O24" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P24" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q24" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R24" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S24" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T24" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U24" t="n">
         <v>0.1392344505371782</v>
@@ -32862,7 +32862,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I25" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J25" t="n">
         <v>125.4421749876822</v>
@@ -32874,7 +32874,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M25" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N25" t="n">
         <v>271.5144826498208</v>
@@ -32886,16 +32886,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q25" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R25" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S25" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T25" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U25" t="n">
         <v>0.09677935578321901</v>
@@ -32950,19 +32950,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L26" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M26" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N26" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O26" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P26" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q26" t="n">
         <v>427.1463859744991</v>
@@ -32971,7 +32971,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S26" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T26" t="n">
         <v>17.31507499256515</v>
@@ -33017,19 +33017,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H27" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I27" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J27" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K27" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L27" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M27" t="n">
         <v>536.2382805021854</v>
@@ -33038,22 +33038,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O27" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P27" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q27" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R27" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S27" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T27" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U27" t="n">
         <v>0.1392344505371782</v>
@@ -33099,7 +33099,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I28" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J28" t="n">
         <v>125.4421749876822</v>
@@ -33111,7 +33111,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M28" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N28" t="n">
         <v>271.5144826498208</v>
@@ -33123,16 +33123,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q28" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R28" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S28" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T28" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U28" t="n">
         <v>0.09677935578321901</v>
@@ -33187,19 +33187,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L29" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M29" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N29" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O29" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P29" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q29" t="n">
         <v>427.1463859744991</v>
@@ -33208,7 +33208,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S29" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T29" t="n">
         <v>17.31507499256515</v>
@@ -33254,19 +33254,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H30" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I30" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J30" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K30" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L30" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M30" t="n">
         <v>536.2382805021854</v>
@@ -33275,22 +33275,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O30" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P30" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q30" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R30" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S30" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T30" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U30" t="n">
         <v>0.1392344505371782</v>
@@ -33336,7 +33336,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I31" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J31" t="n">
         <v>125.4421749876822</v>
@@ -33348,7 +33348,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M31" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N31" t="n">
         <v>271.5144826498208</v>
@@ -33360,16 +33360,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q31" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R31" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S31" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T31" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U31" t="n">
         <v>0.09677935578321901</v>
@@ -33424,19 +33424,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L32" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M32" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N32" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O32" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P32" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q32" t="n">
         <v>427.1463859744991</v>
@@ -33445,7 +33445,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S32" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T32" t="n">
         <v>17.31507499256515</v>
@@ -33491,19 +33491,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H33" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I33" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J33" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K33" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L33" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M33" t="n">
         <v>536.2382805021854</v>
@@ -33512,22 +33512,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O33" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P33" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R33" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S33" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T33" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U33" t="n">
         <v>0.1392344505371782</v>
@@ -33573,7 +33573,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I34" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J34" t="n">
         <v>125.4421749876822</v>
@@ -33585,7 +33585,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M34" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N34" t="n">
         <v>271.5144826498208</v>
@@ -33597,16 +33597,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q34" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R34" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S34" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T34" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U34" t="n">
         <v>0.09677935578321901</v>
@@ -33661,19 +33661,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L35" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M35" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N35" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O35" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P35" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q35" t="n">
         <v>427.1463859744991</v>
@@ -33682,7 +33682,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S35" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T35" t="n">
         <v>17.31507499256515</v>
@@ -33728,19 +33728,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H36" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I36" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J36" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K36" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L36" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M36" t="n">
         <v>536.2382805021854</v>
@@ -33749,22 +33749,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O36" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P36" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q36" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R36" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S36" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T36" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U36" t="n">
         <v>0.1392344505371782</v>
@@ -33810,7 +33810,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I37" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J37" t="n">
         <v>125.4421749876822</v>
@@ -33822,7 +33822,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M37" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N37" t="n">
         <v>271.5144826498208</v>
@@ -33834,16 +33834,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q37" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R37" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S37" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T37" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U37" t="n">
         <v>0.09677935578321901</v>
@@ -34135,19 +34135,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L41" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M41" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N41" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O41" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P41" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q41" t="n">
         <v>427.1463859744991</v>
@@ -34156,7 +34156,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S41" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T41" t="n">
         <v>17.31507499256515</v>
@@ -34202,19 +34202,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H42" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I42" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J42" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K42" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L42" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M42" t="n">
         <v>536.2382805021854</v>
@@ -34223,22 +34223,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O42" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P42" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q42" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R42" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S42" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T42" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U42" t="n">
         <v>0.1392344505371782</v>
@@ -34284,7 +34284,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I43" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J43" t="n">
         <v>125.4421749876822</v>
@@ -34296,7 +34296,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M43" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N43" t="n">
         <v>271.5144826498208</v>
@@ -34308,16 +34308,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q43" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R43" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S43" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T43" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U43" t="n">
         <v>0.09677935578321901</v>
@@ -34372,19 +34372,19 @@
         <v>503.1507642685344</v>
       </c>
       <c r="L44" t="n">
-        <v>624.203014709132</v>
+        <v>624.2030147091319</v>
       </c>
       <c r="M44" t="n">
-        <v>694.5461249087963</v>
+        <v>694.5461249087962</v>
       </c>
       <c r="N44" t="n">
-        <v>705.7846073354384</v>
+        <v>705.7846073354383</v>
       </c>
       <c r="O44" t="n">
-        <v>666.4523910116646</v>
+        <v>666.4523910116645</v>
       </c>
       <c r="P44" t="n">
-        <v>568.8016968074494</v>
+        <v>568.8016968074493</v>
       </c>
       <c r="Q44" t="n">
         <v>427.1463859744991</v>
@@ -34393,7 +34393,7 @@
         <v>248.467865106047</v>
       </c>
       <c r="S44" t="n">
-        <v>90.13529900470097</v>
+        <v>90.13529900470095</v>
       </c>
       <c r="T44" t="n">
         <v>17.31507499256515</v>
@@ -34439,19 +34439,19 @@
         <v>2.116363648165108</v>
       </c>
       <c r="H45" t="n">
-        <v>20.43961733885776</v>
+        <v>20.43961733885775</v>
       </c>
       <c r="I45" t="n">
         <v>72.86602911445658</v>
       </c>
       <c r="J45" t="n">
-        <v>199.9499532680904</v>
+        <v>199.9499532680903</v>
       </c>
       <c r="K45" t="n">
-        <v>341.7463176951526</v>
+        <v>341.7463176951525</v>
       </c>
       <c r="L45" t="n">
-        <v>459.5200982562004</v>
+        <v>459.5200982562003</v>
       </c>
       <c r="M45" t="n">
         <v>536.2382805021854</v>
@@ -34460,22 +34460,22 @@
         <v>550.4309121602752</v>
       </c>
       <c r="O45" t="n">
-        <v>503.5367492193536</v>
+        <v>503.5367492193535</v>
       </c>
       <c r="P45" t="n">
         <v>404.1326338325109</v>
       </c>
       <c r="Q45" t="n">
-        <v>270.1519632289356</v>
+        <v>270.1519632289355</v>
       </c>
       <c r="R45" t="n">
         <v>131.4001921202863</v>
       </c>
       <c r="S45" t="n">
-        <v>39.31052653499661</v>
+        <v>39.3105265349966</v>
       </c>
       <c r="T45" t="n">
-        <v>8.530430669577779</v>
+        <v>8.530430669577777</v>
       </c>
       <c r="U45" t="n">
         <v>0.1392344505371782</v>
@@ -34521,7 +34521,7 @@
         <v>15.77503499266469</v>
       </c>
       <c r="I46" t="n">
-        <v>53.35768482181471</v>
+        <v>53.3576848218147</v>
       </c>
       <c r="J46" t="n">
         <v>125.4421749876822</v>
@@ -34533,7 +34533,7 @@
         <v>263.7882640797937</v>
       </c>
       <c r="M46" t="n">
-        <v>278.1277386283406</v>
+        <v>278.1277386283405</v>
       </c>
       <c r="N46" t="n">
         <v>271.5144826498208</v>
@@ -34545,16 +34545,16 @@
         <v>214.5920915566573</v>
       </c>
       <c r="Q46" t="n">
-        <v>148.5724410198716</v>
+        <v>148.5724410198715</v>
       </c>
       <c r="R46" t="n">
-        <v>79.77844895063343</v>
+        <v>79.77844895063342</v>
       </c>
       <c r="S46" t="n">
         <v>30.92100417273843</v>
       </c>
       <c r="T46" t="n">
-        <v>7.581049536352146</v>
+        <v>7.581049536352145</v>
       </c>
       <c r="U46" t="n">
         <v>0.09677935578321901</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35410,28 +35410,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K11" t="n">
-        <v>283.0609132235539</v>
+        <v>607.2063257947186</v>
       </c>
       <c r="L11" t="n">
-        <v>388.4365997391448</v>
+        <v>661.3606858166658</v>
       </c>
       <c r="M11" t="n">
-        <v>913.7134251743561</v>
+        <v>464.1998916815235</v>
       </c>
       <c r="N11" t="n">
-        <v>913.7184681508317</v>
+        <v>476.3715437388474</v>
       </c>
       <c r="O11" t="n">
-        <v>817.1543608527232</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P11" t="n">
-        <v>369.5764499675341</v>
+        <v>659.3674092236624</v>
       </c>
       <c r="Q11" t="n">
         <v>417.1556867599543</v>
       </c>
       <c r="R11" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>73.11232660142366</v>
+        <v>73.11232660142363</v>
       </c>
       <c r="K12" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L12" t="n">
-        <v>646.3209905586745</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M12" t="n">
-        <v>394.1042465801671</v>
+        <v>750.7018766301585</v>
       </c>
       <c r="N12" t="n">
         <v>419.0892000769419</v>
@@ -35504,13 +35504,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P12" t="n">
-        <v>270.1582264181807</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.1701891429141</v>
+        <v>130.170189142914</v>
       </c>
       <c r="R12" t="n">
-        <v>31.2423579676432</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K13" t="n">
         <v>183.8705359923734</v>
@@ -35574,7 +35574,7 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M13" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N13" t="n">
         <v>315.6466550290494</v>
@@ -35586,7 +35586,7 @@
         <v>211.8706508215508</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K14" t="n">
-        <v>347.7787342332716</v>
+        <v>607.2063257947186</v>
       </c>
       <c r="L14" t="n">
-        <v>806.0978142895952</v>
+        <v>806.0978142895951</v>
       </c>
       <c r="M14" t="n">
-        <v>913.7134251743561</v>
+        <v>557.519059193507</v>
       </c>
       <c r="N14" t="n">
-        <v>913.7184681508317</v>
+        <v>476.3715437388474</v>
       </c>
       <c r="O14" t="n">
-        <v>817.1543608527232</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P14" t="n">
-        <v>337.5687010521798</v>
+        <v>659.3674092236624</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.8406961000497</v>
+        <v>417.1556867599543</v>
       </c>
       <c r="R14" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K15" t="n">
-        <v>203.9048787207936</v>
+        <v>224.3341856945269</v>
       </c>
       <c r="L15" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M15" t="n">
         <v>394.1042465801671</v>
@@ -35741,10 +35741,10 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P15" t="n">
-        <v>290.5875333919137</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q15" t="n">
-        <v>340.2474768787632</v>
+        <v>340.2474768787631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K16" t="n">
         <v>183.8705359923734</v>
@@ -35811,19 +35811,19 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M16" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N16" t="n">
         <v>315.6466550290494</v>
       </c>
       <c r="O16" t="n">
-        <v>275.3726985336204</v>
+        <v>275.372698533621</v>
       </c>
       <c r="P16" t="n">
         <v>211.8706508215508</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K17" t="n">
-        <v>347.7787342332716</v>
+        <v>607.2063257947186</v>
       </c>
       <c r="L17" t="n">
-        <v>806.0978142895952</v>
+        <v>449.9034483087462</v>
       </c>
       <c r="M17" t="n">
-        <v>913.7134251743561</v>
+        <v>913.713425174356</v>
       </c>
       <c r="N17" t="n">
-        <v>913.7184681508317</v>
+        <v>476.3715437388474</v>
       </c>
       <c r="O17" t="n">
-        <v>817.1543608527232</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P17" t="n">
-        <v>337.5687010521798</v>
+        <v>659.3674092236624</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.8406961000497</v>
+        <v>417.1556867599543</v>
       </c>
       <c r="R17" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K18" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L18" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M18" t="n">
         <v>394.1042465801671</v>
@@ -35978,13 +35978,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P18" t="n">
-        <v>290.5875333919137</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q18" t="n">
-        <v>340.2474768787632</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K19" t="n">
         <v>183.8705359923734</v>
@@ -36048,7 +36048,7 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M19" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N19" t="n">
         <v>315.6466550290494</v>
@@ -36060,7 +36060,7 @@
         <v>211.8706508215508</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K20" t="n">
-        <v>283.0609132235539</v>
+        <v>607.2063257947186</v>
       </c>
       <c r="L20" t="n">
-        <v>388.4365997391448</v>
+        <v>740.1014679224812</v>
       </c>
       <c r="M20" t="n">
-        <v>913.7134251743561</v>
+        <v>464.1998916815235</v>
       </c>
       <c r="N20" t="n">
-        <v>913.7184681508317</v>
+        <v>913.7184681508315</v>
       </c>
       <c r="O20" t="n">
-        <v>765.4196975815039</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P20" t="n">
         <v>659.3674092236624</v>
       </c>
       <c r="Q20" t="n">
-        <v>417.1556867599543</v>
+        <v>204.8406961000496</v>
       </c>
       <c r="R20" t="n">
-        <v>98.59874716489736</v>
+        <v>32.88232729191489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K21" t="n">
-        <v>203.9048787207936</v>
+        <v>224.3341856945269</v>
       </c>
       <c r="L21" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M21" t="n">
         <v>394.1042465801671</v>
@@ -36215,13 +36215,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P21" t="n">
-        <v>270.1582264181807</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q21" t="n">
-        <v>329.4344258848533</v>
+        <v>340.2474768787631</v>
       </c>
       <c r="R21" t="n">
-        <v>31.2423579676432</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K22" t="n">
         <v>183.8705359923734</v>
@@ -36285,7 +36285,7 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M22" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N22" t="n">
         <v>315.6466550290494</v>
@@ -36297,7 +36297,7 @@
         <v>211.8706508215508</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K23" t="n">
-        <v>347.7787342332716</v>
+        <v>283.0609132235538</v>
       </c>
       <c r="L23" t="n">
-        <v>806.0978142895952</v>
+        <v>806.0978142895951</v>
       </c>
       <c r="M23" t="n">
-        <v>913.7134251743561</v>
+        <v>913.713425174356</v>
       </c>
       <c r="N23" t="n">
-        <v>913.7184681508317</v>
+        <v>913.7184681508315</v>
       </c>
       <c r="O23" t="n">
-        <v>817.1543608527232</v>
+        <v>436.3541795899778</v>
       </c>
       <c r="P23" t="n">
-        <v>337.5687010521798</v>
+        <v>570.7717126647394</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.8406961000497</v>
+        <v>417.1556867599543</v>
       </c>
       <c r="R23" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K24" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L24" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M24" t="n">
         <v>394.1042465801671</v>
@@ -36452,13 +36452,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P24" t="n">
-        <v>290.5875333919137</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q24" t="n">
-        <v>340.2474768787632</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K25" t="n">
         <v>183.8705359923734</v>
@@ -36522,7 +36522,7 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M25" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N25" t="n">
         <v>315.6466550290494</v>
@@ -36534,7 +36534,7 @@
         <v>211.8706508215508</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K26" t="n">
-        <v>406.7802073245347</v>
+        <v>347.7787342332729</v>
       </c>
       <c r="L26" t="n">
-        <v>806.0978142895952</v>
+        <v>806.0978142895951</v>
       </c>
       <c r="M26" t="n">
-        <v>913.7134251743561</v>
+        <v>913.713425174356</v>
       </c>
       <c r="N26" t="n">
-        <v>913.7184681508317</v>
+        <v>913.7184681508315</v>
       </c>
       <c r="O26" t="n">
-        <v>436.3541795899779</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P26" t="n">
-        <v>659.3674092236624</v>
+        <v>337.5687010521797</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.8406961000497</v>
+        <v>204.8406961000496</v>
       </c>
       <c r="R26" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>111.2471880114775</v>
+        <v>199.2033619418325</v>
       </c>
       <c r="K27" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L27" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M27" t="n">
         <v>394.1042465801671</v>
@@ -36689,13 +36689,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P27" t="n">
-        <v>588.6209950581178</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.1701891429141</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K28" t="n">
         <v>183.8705359923734</v>
@@ -36759,7 +36759,7 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M28" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N28" t="n">
         <v>315.6466550290494</v>
@@ -36771,7 +36771,7 @@
         <v>211.8706508215508</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K29" t="n">
-        <v>283.0609132235539</v>
+        <v>347.7787342332729</v>
       </c>
       <c r="L29" t="n">
-        <v>806.0978142895952</v>
+        <v>806.0978142895951</v>
       </c>
       <c r="M29" t="n">
-        <v>913.7134251743561</v>
+        <v>913.713425174356</v>
       </c>
       <c r="N29" t="n">
-        <v>913.7184681508317</v>
+        <v>913.7184681508315</v>
       </c>
       <c r="O29" t="n">
-        <v>817.1543608527232</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P29" t="n">
-        <v>402.286522061898</v>
+        <v>337.5687010521797</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.8406961000497</v>
+        <v>204.8406961000496</v>
       </c>
       <c r="R29" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K30" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L30" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M30" t="n">
         <v>394.1042465801671</v>
@@ -36926,13 +36926,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P30" t="n">
-        <v>270.1582264181807</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q30" t="n">
-        <v>329.4344258848533</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R30" t="n">
-        <v>31.2423579676432</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>32.08299487100946</v>
+        <v>32.08299487100945</v>
       </c>
       <c r="K31" t="n">
         <v>183.8705359923734</v>
@@ -36996,7 +36996,7 @@
         <v>291.3782893401099</v>
       </c>
       <c r="M31" t="n">
-        <v>317.7116155901812</v>
+        <v>317.7116155901811</v>
       </c>
       <c r="N31" t="n">
         <v>315.6466550290494</v>
@@ -37008,7 +37008,7 @@
         <v>211.8706508215508</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.41039776817719</v>
+        <v>62.41039776817716</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>607.2063257947186</v>
       </c>
       <c r="L32" t="n">
-        <v>449.9034483087455</v>
+        <v>806.0978142895951</v>
       </c>
       <c r="M32" t="n">
-        <v>913.7134251743561</v>
+        <v>464.1998916815235</v>
       </c>
       <c r="N32" t="n">
-        <v>476.3715437388475</v>
+        <v>569.6907112508308</v>
       </c>
       <c r="O32" t="n">
-        <v>817.1543608527232</v>
+        <v>817.1543608527231</v>
       </c>
       <c r="P32" t="n">
         <v>659.3674092236624</v>
@@ -37090,7 +37090,7 @@
         <v>417.1556867599543</v>
       </c>
       <c r="R32" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K33" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L33" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M33" t="n">
         <v>394.1042465801671</v>
@@ -37163,13 +37163,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P33" t="n">
-        <v>270.1582264181807</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q33" t="n">
-        <v>329.4344258848533</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R33" t="n">
-        <v>31.2423579676432</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.69174897202993</v>
+        <v>87.6917489720299</v>
       </c>
       <c r="K34" t="n">
         <v>239.4792900933938</v>
@@ -37245,7 +37245,7 @@
         <v>267.4794049225712</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.0191518691977</v>
+        <v>118.0191518691976</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2063257947186</v>
+        <v>295.1725741692041</v>
       </c>
       <c r="L35" t="n">
-        <v>429.1496071870583</v>
+        <v>388.4365997391447</v>
       </c>
       <c r="M35" t="n">
-        <v>464.1998916815236</v>
+        <v>913.713425174356</v>
       </c>
       <c r="N35" t="n">
-        <v>476.3715437388475</v>
+        <v>913.7184681508315</v>
       </c>
       <c r="O35" t="n">
-        <v>436.3541795899779</v>
+        <v>436.3541795899778</v>
       </c>
       <c r="P35" t="n">
-        <v>659.3674092236624</v>
+        <v>337.5687010521797</v>
       </c>
       <c r="Q35" t="n">
-        <v>417.1556867599543</v>
+        <v>204.8406961000496</v>
       </c>
       <c r="R35" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K36" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L36" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M36" t="n">
         <v>394.1042465801671</v>
@@ -37400,13 +37400,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P36" t="n">
-        <v>270.1582264181807</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q36" t="n">
-        <v>329.4344258848533</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R36" t="n">
-        <v>31.2423579676432</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.69174897202993</v>
+        <v>87.6917489720299</v>
       </c>
       <c r="K37" t="n">
         <v>239.4792900933938</v>
@@ -37473,16 +37473,16 @@
         <v>373.3203696912016</v>
       </c>
       <c r="N37" t="n">
-        <v>371.2554091300698</v>
+        <v>371.2554091300699</v>
       </c>
       <c r="O37" t="n">
-        <v>330.9814526346415</v>
+        <v>330.9814526346414</v>
       </c>
       <c r="P37" t="n">
         <v>267.4794049225712</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.0191518691977</v>
+        <v>118.0191518691976</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2063257947186</v>
+        <v>283.0609132235539</v>
       </c>
       <c r="L38" t="n">
-        <v>388.4365997391448</v>
+        <v>625.5801944368737</v>
       </c>
       <c r="M38" t="n">
-        <v>464.1998916815236</v>
+        <v>913.7134251743561</v>
       </c>
       <c r="N38" t="n">
         <v>476.3715437388475</v>
       </c>
       <c r="O38" t="n">
-        <v>477.0671870378906</v>
+        <v>436.3541795899779</v>
       </c>
       <c r="P38" t="n">
-        <v>659.3674092236624</v>
+        <v>337.5687010521798</v>
       </c>
       <c r="Q38" t="n">
         <v>417.1556867599543</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.69174897202996</v>
+        <v>87.69174897202991</v>
       </c>
       <c r="K40" t="n">
         <v>239.4792900933938</v>
       </c>
       <c r="L40" t="n">
-        <v>346.9870434411304</v>
+        <v>346.9870434411303</v>
       </c>
       <c r="M40" t="n">
-        <v>373.3203696912017</v>
+        <v>373.3203696912016</v>
       </c>
       <c r="N40" t="n">
         <v>371.2554091300699</v>
@@ -37716,10 +37716,10 @@
         <v>330.9814526346415</v>
       </c>
       <c r="P40" t="n">
-        <v>267.4794049225713</v>
+        <v>267.4794049225712</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.0191518691977</v>
+        <v>118.0191518691976</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.7663808110589</v>
+        <v>154.6697656389852</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2063257947186</v>
+        <v>283.0609132235538</v>
       </c>
       <c r="L41" t="n">
-        <v>429.1496071870583</v>
+        <v>806.0978142895951</v>
       </c>
       <c r="M41" t="n">
-        <v>464.1998916815236</v>
+        <v>464.1998916815235</v>
       </c>
       <c r="N41" t="n">
-        <v>476.3715437388475</v>
+        <v>913.7184681508315</v>
       </c>
       <c r="O41" t="n">
-        <v>436.3541795899779</v>
+        <v>715.1311945230664</v>
       </c>
       <c r="P41" t="n">
-        <v>659.3674092236624</v>
+        <v>337.5687010521797</v>
       </c>
       <c r="Q41" t="n">
-        <v>417.1556867599543</v>
+        <v>204.8406961000496</v>
       </c>
       <c r="R41" t="n">
-        <v>98.59874716489736</v>
+        <v>32.88232729191489</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K42" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L42" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M42" t="n">
         <v>394.1042465801671</v>
@@ -37874,13 +37874,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P42" t="n">
-        <v>270.1582264181807</v>
+        <v>270.1582264181806</v>
       </c>
       <c r="Q42" t="n">
-        <v>329.4344258848533</v>
+        <v>329.4344258848537</v>
       </c>
       <c r="R42" t="n">
-        <v>31.2423579676432</v>
+        <v>31.24235796764317</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.69174897202993</v>
+        <v>87.6917489720299</v>
       </c>
       <c r="K43" t="n">
         <v>239.4792900933938</v>
@@ -37956,7 +37956,7 @@
         <v>267.4794049225712</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.0191518691977</v>
+        <v>118.0191518691976</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>323.7663808110589</v>
       </c>
       <c r="K44" t="n">
-        <v>283.0609132235539</v>
+        <v>607.2063257947186</v>
       </c>
       <c r="L44" t="n">
-        <v>388.4365997391448</v>
+        <v>388.4365997391447</v>
       </c>
       <c r="M44" t="n">
-        <v>913.7134251743561</v>
+        <v>464.1998916815235</v>
       </c>
       <c r="N44" t="n">
-        <v>476.3715437388475</v>
+        <v>476.3715437388474</v>
       </c>
       <c r="O44" t="n">
-        <v>436.3541795899779</v>
+        <v>477.0671870378906</v>
       </c>
       <c r="P44" t="n">
-        <v>574.7122957499083</v>
+        <v>659.3674092236624</v>
       </c>
       <c r="Q44" t="n">
         <v>417.1556867599543</v>
       </c>
       <c r="R44" t="n">
-        <v>98.59874716489736</v>
+        <v>98.59874716489733</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>199.2033619418325</v>
       </c>
       <c r="K45" t="n">
-        <v>203.9048787207936</v>
+        <v>203.9048787207935</v>
       </c>
       <c r="L45" t="n">
-        <v>320.9657184763262</v>
+        <v>320.9657184763261</v>
       </c>
       <c r="M45" t="n">
         <v>394.1042465801671</v>
@@ -38111,13 +38111,13 @@
         <v>360.9405047749091</v>
       </c>
       <c r="P45" t="n">
-        <v>270.1582264181807</v>
+        <v>290.587533391914</v>
       </c>
       <c r="Q45" t="n">
-        <v>329.4344258848533</v>
+        <v>340.2474768787631</v>
       </c>
       <c r="R45" t="n">
-        <v>31.2423579676432</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.69174897202991</v>
+        <v>87.69174897202993</v>
       </c>
       <c r="K46" t="n">
         <v>239.4792900933938</v>
       </c>
       <c r="L46" t="n">
-        <v>346.9870434411303</v>
+        <v>346.9870434411304</v>
       </c>
       <c r="M46" t="n">
         <v>373.3203696912016</v>
@@ -38190,10 +38190,10 @@
         <v>330.9814526346415</v>
       </c>
       <c r="P46" t="n">
-        <v>267.4794049225712</v>
+        <v>267.4794049225713</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.0191518691976</v>
+        <v>118.0191518691977</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
